--- a/data/hotels_by_city/Houston/Houston_shard_225.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_225.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="694">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d263231-Reviews-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
   </si>
   <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-NASA-Johnson-Space-Center.h120585.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1984 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r596193878-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>263231</t>
+  </si>
+  <si>
+    <t>596193878</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Friendly desk attendants</t>
+  </si>
+  <si>
+    <t>Awesome customer service. Clean room.  Very quiet hotel. Bed linen clean and comfortable.  I would definitely recommend this hotel. They even accommodated me having a torn meniscus placing us on the 1st floorMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Awesome customer service. Clean room.  Very quiet hotel. Bed linen clean and comfortable.  I would definitely recommend this hotel. They even accommodated me having a torn meniscus placing us on the 1st floorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r593872157-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593872157</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Gabby is the Shining Light of this Hotel</t>
+  </si>
+  <si>
+    <t>I am staying her for 10 weeks and I could not be happier almost exclusively because of Gabby. She is an amazing individual with both an unmatched work ethic and glowing personality to help you tackle any issue you might be facing. Also she makes me laugh and laughter is the best medicine. She is one of the sweetest people I have ever met and any business would benefit from having her as the face of it.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I am staying her for 10 weeks and I could not be happier almost exclusively because of Gabby. She is an amazing individual with both an unmatched work ethic and glowing personality to help you tackle any issue you might be facing. Also she makes me laugh and laughter is the best medicine. She is one of the sweetest people I have ever met and any business would benefit from having her as the face of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r593659889-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593659889</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Anh the awesome receptionist</t>
+  </si>
+  <si>
+    <t>My stay at this lodging was enjoyable.  I would recommend this place.  I had no problem.  The room was decently clean.  I liked the small kitchen in the room.  The bed was comfortable.  I was welcomed by cool air as the air condition was already running. The hotel receptionist, Anh, was fun to converse with. I spoke to her as if she was my sister because we're both from the same country. Hello Anh! (Please give her a raise!) I do appreciate the small grab and go coffee bar.  I just wish there was a top cover for my hot coffee. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Owner at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>My stay at this lodging was enjoyable.  I would recommend this place.  I had no problem.  The room was decently clean.  I liked the small kitchen in the room.  The bed was comfortable.  I was welcomed by cool air as the air condition was already running. The hotel receptionist, Anh, was fun to converse with. I spoke to her as if she was my sister because we're both from the same country. Hello Anh! (Please give her a raise!) I do appreciate the small grab and go coffee bar.  I just wish there was a top cover for my hot coffee. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r589310823-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589310823</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Extended stay perfect customer service skills.</t>
+  </si>
+  <si>
+    <t>It's a worker name Gabby who Cares about guests having an excellent stay.We love her and thank her for a perfect stay. The hotel was very clean. It was quiet and relaxing. We chose to stay here due to it's security and nice look outside. Little did we know the inside was jus as perfect. We will request others to take a visit here. As well as we will be back for a nice time soon. Thank you extended stay for giving my family the best experience ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>It's a worker name Gabby who Cares about guests having an excellent stay.We love her and thank her for a perfect stay. The hotel was very clean. It was quiet and relaxing. We chose to stay here due to it's security and nice look outside. Little did we know the inside was jus as perfect. We will request others to take a visit here. As well as we will be back for a nice time soon. Thank you extended stay for giving my family the best experience ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r587426942-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587426942</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Great Job!</t>
+  </si>
+  <si>
+    <t>Loved our stay! Trista and Kim were excellent!  The hotel was clean, and everyone was really helpful. When ever we needed service we were always taken care of, we would highly recommend this place to our family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Loved our stay! Trista and Kim were excellent!  The hotel was clean, and everyone was really helpful. When ever we needed service we were always taken care of, we would highly recommend this place to our family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r573587259-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573587259</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>I booked my stay using Priceline’s bargain deal. I should have just paid the extra money to stay somewhere nicer. The room was in need of a good scrubbing and the bathtub was filthy. I did a very quick wipe down in the tub and the towel ended up black and full of hair (picture included). I informed the person at the front desk about this and he thanked me for bringing it to his attention and then quickly dismissed my concerns. Their breakfast consists of granola bars and coffee. The one positive I could find was that it was very quiet during my stay. If you just need a place to crash that is inexpensive then this would probably be fine for you. Otherwise, I’d recommend checking out one of the other hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>I booked my stay using Priceline’s bargain deal. I should have just paid the extra money to stay somewhere nicer. The room was in need of a good scrubbing and the bathtub was filthy. I did a very quick wipe down in the tub and the towel ended up black and full of hair (picture included). I informed the person at the front desk about this and he thanked me for bringing it to his attention and then quickly dismissed my concerns. Their breakfast consists of granola bars and coffee. The one positive I could find was that it was very quiet during my stay. If you just need a place to crash that is inexpensive then this would probably be fine for you. Otherwise, I’d recommend checking out one of the other hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r562423520-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562423520</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>The worst hotel</t>
+  </si>
+  <si>
+    <t>I  never stayed in a bad hotel like this Extended Stay America I arrived on 02/12/2018 at 11pm I booked a 2 and a half star hotel with breakfast. I was completely mistaken. This hotel does not have 2 and a half stars, has no housekeeping, no towel change. The breakfast has only coffee, muffins and cereal bar. No table to sit at breakfast, Recently stayed in hotels with the same catecteristicas and were very good hotels. I request the immediate exchange of this lousy hotel, which does not match the characteristics described. I went in the reception to ask for new towels and the towels are dirty. THIS COMMITS THE HEALTH OF MY DAUGHTERS The next day, I checked into the hotel and again the room was not cleaned and the towels were not changed. I went to the reception and asked for new towels, but they did not. I waited two hours and they were still without towels. I had to go to the supermarket at 1:00 AM and buy towels for my family to take a shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>I  never stayed in a bad hotel like this Extended Stay America I arrived on 02/12/2018 at 11pm I booked a 2 and a half star hotel with breakfast. I was completely mistaken. This hotel does not have 2 and a half stars, has no housekeeping, no towel change. The breakfast has only coffee, muffins and cereal bar. No table to sit at breakfast, Recently stayed in hotels with the same catecteristicas and were very good hotels. I request the immediate exchange of this lousy hotel, which does not match the characteristics described. I went in the reception to ask for new towels and the towels are dirty. THIS COMMITS THE HEALTH OF MY DAUGHTERS The next day, I checked into the hotel and again the room was not cleaned and the towels were not changed. I went to the reception and asked for new towels, but they did not. I waited two hours and they were still without towels. I had to go to the supermarket at 1:00 AM and buy towels for my family to take a shower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r556340679-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556340679</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Grossed out</t>
+  </si>
+  <si>
+    <t>The family &amp; I stayed here on 01/23/18 things were going good until my husband took a shower there was hair everywhere.When we layed down for bed there was hair even on the covers hair on the bath towelsMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded January 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2018</t>
+  </si>
+  <si>
+    <t>The family &amp; I stayed here on 01/23/18 things were going good until my husband took a shower there was hair everywhere.When we layed down for bed there was hair even on the covers hair on the bath towelsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r554484727-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554484727</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Would give it zero stars if I could</t>
+  </si>
+  <si>
+    <t>They were out of toilet paper!  They wanted us to change rooms halfway through our visit.  The nearby outdoor access exit was nonfunctional; therefore, we had to go all the way to the other end of the hotel to get out of it.  The manager never showed her face, and let the poor front desk person deal with very unpleasant issues instead of taking care of them herself.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>They were out of toilet paper!  They wanted us to change rooms halfway through our visit.  The nearby outdoor access exit was nonfunctional; therefore, we had to go all the way to the other end of the hotel to get out of it.  The manager never showed her face, and let the poor front desk person deal with very unpleasant issues instead of taking care of them herself.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r547190566-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547190566</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Nice, but Small</t>
+  </si>
+  <si>
+    <t>This MicroTel hotel is nestled in the back area across the street from the NASA Center entrance.  It is easy to get to off I-45 south by following NASA 1.  Parking is ample and the building is neatly kept and clean. The staff were extremely friendly and went out of their way to ensure you had a great stay.  The lone elevator is slow but big enough for the baggage trolley to fit nicely.  My room on the 2nd floor was just big enough for one person let alone two.  The bathroom is spartan and the towels are not as large as you might think.  The room had a microwave and small refrigerator and were nestled against the wardrobe that takes up one corner of the room.  The television was mounted high on the wall and had lots of channels. There is a padded window seat that a child could sleep on if there was some sort of barrier to keep them from falling off.  The only lighting are two florescent tube lights in a box over the headboard. The room was extremely small as compared to what you'd get a large brand name hotel.  I've stayed there before and will go back if I am by myself.  Two people in that room I had would be tight.  There are plenty of restaurants nearby.  This is a good place for one person but they might have bigger rooms.  You'll have...This MicroTel hotel is nestled in the back area across the street from the NASA Center entrance.  It is easy to get to off I-45 south by following NASA 1.  Parking is ample and the building is neatly kept and clean. The staff were extremely friendly and went out of their way to ensure you had a great stay.  The lone elevator is slow but big enough for the baggage trolley to fit nicely.  My room on the 2nd floor was just big enough for one person let alone two.  The bathroom is spartan and the towels are not as large as you might think.  The room had a microwave and small refrigerator and were nestled against the wardrobe that takes up one corner of the room.  The television was mounted high on the wall and had lots of channels. There is a padded window seat that a child could sleep on if there was some sort of barrier to keep them from falling off.  The only lighting are two florescent tube lights in a box over the headboard. The room was extremely small as compared to what you'd get a large brand name hotel.  I've stayed there before and will go back if I am by myself.  Two people in that room I had would be tight.  There are plenty of restaurants nearby.  This is a good place for one person but they might have bigger rooms.  You'll have to ask.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>This MicroTel hotel is nestled in the back area across the street from the NASA Center entrance.  It is easy to get to off I-45 south by following NASA 1.  Parking is ample and the building is neatly kept and clean. The staff were extremely friendly and went out of their way to ensure you had a great stay.  The lone elevator is slow but big enough for the baggage trolley to fit nicely.  My room on the 2nd floor was just big enough for one person let alone two.  The bathroom is spartan and the towels are not as large as you might think.  The room had a microwave and small refrigerator and were nestled against the wardrobe that takes up one corner of the room.  The television was mounted high on the wall and had lots of channels. There is a padded window seat that a child could sleep on if there was some sort of barrier to keep them from falling off.  The only lighting are two florescent tube lights in a box over the headboard. The room was extremely small as compared to what you'd get a large brand name hotel.  I've stayed there before and will go back if I am by myself.  Two people in that room I had would be tight.  There are plenty of restaurants nearby.  This is a good place for one person but they might have bigger rooms.  You'll have...This MicroTel hotel is nestled in the back area across the street from the NASA Center entrance.  It is easy to get to off I-45 south by following NASA 1.  Parking is ample and the building is neatly kept and clean. The staff were extremely friendly and went out of their way to ensure you had a great stay.  The lone elevator is slow but big enough for the baggage trolley to fit nicely.  My room on the 2nd floor was just big enough for one person let alone two.  The bathroom is spartan and the towels are not as large as you might think.  The room had a microwave and small refrigerator and were nestled against the wardrobe that takes up one corner of the room.  The television was mounted high on the wall and had lots of channels. There is a padded window seat that a child could sleep on if there was some sort of barrier to keep them from falling off.  The only lighting are two florescent tube lights in a box over the headboard. The room was extremely small as compared to what you'd get a large brand name hotel.  I've stayed there before and will go back if I am by myself.  Two people in that room I had would be tight.  There are plenty of restaurants nearby.  This is a good place for one person but they might have bigger rooms.  You'll have to ask.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r547167951-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547167951</t>
+  </si>
+  <si>
+    <t>Nice Location and Ambience</t>
+  </si>
+  <si>
+    <t>Location was clean. Parking is abundant. Restaurants are accessible. The service personnel was helpful. The room was clean. The property is very close to NASA (you just have to cross the road). This is recommended choice if you need to stay closer to NASA.The bath tub was small when compared to other ESA property I've visited. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Location was clean. Parking is abundant. Restaurants are accessible. The service personnel was helpful. The room was clean. The property is very close to NASA (you just have to cross the road). This is recommended choice if you need to stay closer to NASA.The bath tub was small when compared to other ESA property I've visited. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r539448778-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539448778</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Not Good!</t>
+  </si>
+  <si>
+    <t>We wanted to visit NASA, so to save time we booked a room in extended stay just opp to our destination. Room was of a  decent size, we had refrigerator, micro wave and a stove. Checking in was done just in mins.  There was complementary breakfast next morning, 2-3 varieties of muffins, oat meal bars, 3-4 varieties of instant oats with coffee and cream. We have star bucks just opp to the hotel. I took all the cookware and groceries thinking that we would cook. But after looking at stove we changed our idea and ordered food from a restaurant near by. Stove was not clean. Refrigerator and microwave were in a good condition. There were small bugs in the bathroom also no hot water. My husband informed it to the front office, we were told that someone would visit the room but no one turned up. Since we were getting late to the NASA bus tour we had to settle with cold water.  There were very tiny holes in the bedsheets. We love extended stay but this one was not up to the mark.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>We wanted to visit NASA, so to save time we booked a room in extended stay just opp to our destination. Room was of a  decent size, we had refrigerator, micro wave and a stove. Checking in was done just in mins.  There was complementary breakfast next morning, 2-3 varieties of muffins, oat meal bars, 3-4 varieties of instant oats with coffee and cream. We have star bucks just opp to the hotel. I took all the cookware and groceries thinking that we would cook. But after looking at stove we changed our idea and ordered food from a restaurant near by. Stove was not clean. Refrigerator and microwave were in a good condition. There were small bugs in the bathroom also no hot water. My husband informed it to the front office, we were told that someone would visit the room but no one turned up. Since we were getting late to the NASA bus tour we had to settle with cold water.  There were very tiny holes in the bedsheets. We love extended stay but this one was not up to the mark.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r519458316-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519458316</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Very pleasant stay right before Hurricane Harvey hit</t>
+  </si>
+  <si>
+    <t>My stay was really good. Christyn Washington at the front desk help me to get some chairs for my desk because they where missing when I checked in but she corrected the issue with due diligence. Olga the General manager handle her property very professionally. I wish all Extended Stay are more welcoming as the staff on 1410 Nasa Johnson Space Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>My stay was really good. Christyn Washington at the front desk help me to get some chairs for my desk because they where missing when I checked in but she corrected the issue with due diligence. Olga the General manager handle her property very professionally. I wish all Extended Stay are more welcoming as the staff on 1410 Nasa Johnson Space Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r509506940-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509506940</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Don't be sure that you will get what you reserve..!</t>
+  </si>
+  <si>
+    <t>First they did Not honor the reservation for two beds nor the price. They have issues obeying  their corporate office, so forget talking to their customer service to get the issue resolved. The room was smelly..not sure someone smoked or may be weed..this was supposed to be a Non-smoking hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>First they did Not honor the reservation for two beds nor the price. They have issues obeying  their corporate office, so forget talking to their customer service to get the issue resolved. The room was smelly..not sure someone smoked or may be weed..this was supposed to be a Non-smoking hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r506638363-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506638363</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Horrible service</t>
+  </si>
+  <si>
+    <t>They over booked, then cancelled me without notice! I would put a negative if I could,  I tried to check in early and was declined then when I arrived to check in at 945pm they advise me that their corporate office had cancelled my reservation but never advised me!!!! Never again and corporate will be hearing from me! Ridiculous service!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>They over booked, then cancelled me without notice! I would put a negative if I could,  I tried to check in early and was declined then when I arrived to check in at 945pm they advise me that their corporate office had cancelled my reservation but never advised me!!!! Never again and corporate will be hearing from me! Ridiculous service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r498423410-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498423410</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Great experience! !!! Wonderful! !!</t>
+  </si>
+  <si>
+    <t>Outstanding service !!! Clean and helpful.recommend highly !!! Close to restaurants and malls .easy to accsess.also has sister ground with pool very near.we will return evety time we visit family in area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Outstanding service !!! Clean and helpful.recommend highly !!! Close to restaurants and malls .easy to accsess.also has sister ground with pool very near.we will return evety time we visit family in area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r493743165-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493743165</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Very Comfortable Stay for an affordable price!!</t>
+  </si>
+  <si>
+    <t>This is my 2nd time staying in the Houston area and 1st at the NASA extended Stay hotel. The rooms were very clean, modern and the hotel staff were very friendly.  Thank you I will stay here again and I will recommend to my friends and family! MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>This is my 2nd time staying in the Houston area and 1st at the NASA extended Stay hotel. The rooms were very clean, modern and the hotel staff were very friendly.  Thank you I will stay here again and I will recommend to my friends and family! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r490311325-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490311325</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>A First-hand Insight of the NASA Space Program</t>
+  </si>
+  <si>
+    <t>It was my first visit to this fountain of knowledge abt the Space Exploration.we had the chance to experience life in outer space,the types of spaceships,the nutritional needs of the astronauts,research n others.the full day visit was an eye opener n memorable one.Everyone must visit this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded June 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2017</t>
+  </si>
+  <si>
+    <t>It was my first visit to this fountain of knowledge abt the Space Exploration.we had the chance to experience life in outer space,the types of spaceships,the nutritional needs of the astronauts,research n others.the full day visit was an eye opener n memorable one.Everyone must visit this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r469963265-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469963265</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible </t>
+  </si>
+  <si>
+    <t>This place smells like day old fish..the lady at front desk was rude. We booked a room with 2 beds.  Received a room with 1 queen. We asked for a roll away for our daughter.  The lady was real hateful and said if your husband comes down and pays $10.00 I'll give him a roll away and HE can take it to the room. Beds are hard! The free breakfast they talk about...well, that's a joke...you can have a granola bar...wait, what?  Never again will we stay here nor recommend this place to anyone. My husband travels a lot for business and stays in a lot of hotels..this place is like a ghetto run down motel. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This place smells like day old fish..the lady at front desk was rude. We booked a room with 2 beds.  Received a room with 1 queen. We asked for a roll away for our daughter.  The lady was real hateful and said if your husband comes down and pays $10.00 I'll give him a roll away and HE can take it to the room. Beds are hard! The free breakfast they talk about...well, that's a joke...you can have a granola bar...wait, what?  Never again will we stay here nor recommend this place to anyone. My husband travels a lot for business and stays in a lot of hotels..this place is like a ghetto run down motel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r469133969-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469133969</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Room was nice a seemed to remolded.  Beds were a little hard but it was a nice hotel. The continental breakfast was simple but good.  The compliant i have is the lady who checked us was not very pleasant and my husband and had to wait 15 minutes for her to show up but other than it was a nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Room was nice a seemed to remolded.  Beds were a little hard but it was a nice hotel. The continental breakfast was simple but good.  The compliant i have is the lady who checked us was not very pleasant and my husband and had to wait 15 minutes for her to show up but other than it was a nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r460085251-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460085251</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Decent, clean place to stay</t>
+  </si>
+  <si>
+    <t>Beds were comfy, room was clean, our AC was probably on its last leg and needed to be replaced but it cooled enough for our stay. Staff was extremely helpful and assisted me with all needs I went to them about. Most important to me is the cleanliness and space in the rooms and they were great! Only flaw in the room was the shower, could had had more water pressure and hot water heater turned up a bit, otherwise much better than some of their other locations in the Houston area. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Beds were comfy, room was clean, our AC was probably on its last leg and needed to be replaced but it cooled enough for our stay. Staff was extremely helpful and assisted me with all needs I went to them about. Most important to me is the cleanliness and space in the rooms and they were great! Only flaw in the room was the shower, could had had more water pressure and hot water heater turned up a bit, otherwise much better than some of their other locations in the Houston area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r430750288-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430750288</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Brand name cheap facility stay.</t>
+  </si>
+  <si>
+    <t>I had a good opinion about Extended Stay America. Room not worth the price paid. Free breakfast is farce. Coffee, tea, muffins, pies and energy bar - is this breakfast? kidding.Don't get fooled. Looks like this chains in Houston is different. My friends family paid $15 more (2 queen beds) for ESA in Bay area which was remodeled had the same breakfast menu. This stay was very near to NASA, so we choose this place, but not at all satisfied.Pros: location, parkingCons: Breakfast, smoking smell in non-smoking room, very small bath tub, cheap toiletries.Would never ever recommend to others as I would never stay at this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>I had a good opinion about Extended Stay America. Room not worth the price paid. Free breakfast is farce. Coffee, tea, muffins, pies and energy bar - is this breakfast? kidding.Don't get fooled. Looks like this chains in Houston is different. My friends family paid $15 more (2 queen beds) for ESA in Bay area which was remodeled had the same breakfast menu. This stay was very near to NASA, so we choose this place, but not at all satisfied.Pros: location, parkingCons: Breakfast, smoking smell in non-smoking room, very small bath tub, cheap toiletries.Would never ever recommend to others as I would never stay at this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r394752903-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394752903</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Get What You Pay For</t>
+  </si>
+  <si>
+    <t>Hello,We recently stayed at Extended Stay on Nasa Rd 1. Though the service staff was friendlly and somewhat accomodating overall the facility is very dated and worn. There is no pool at this location. Though we had reserved 3 non-smoking rooms via Priceline Express deal (listed as 3.5 star a very generous ranking in my opinion) for 44 dollars we only got 2 non smoking rooms, the other was brutal really reeked of many stays of smokers. This facility was probably very nice in its day but thats long past. Though it looks like they have attempted to make some cosmetic update (looked maybe like they tried to repaint the rooms in the last year or so). Our faucet leaked and the shower leaked kinda like being in a submarine. On the positive the location can not be better for a visit to Johnson Space Center. Perhaps Don Knotts may have stayed here when filming the Reluctant Astronaut in 1967.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Hello,We recently stayed at Extended Stay on Nasa Rd 1. Though the service staff was friendlly and somewhat accomodating overall the facility is very dated and worn. There is no pool at this location. Though we had reserved 3 non-smoking rooms via Priceline Express deal (listed as 3.5 star a very generous ranking in my opinion) for 44 dollars we only got 2 non smoking rooms, the other was brutal really reeked of many stays of smokers. This facility was probably very nice in its day but thats long past. Though it looks like they have attempted to make some cosmetic update (looked maybe like they tried to repaint the rooms in the last year or so). Our faucet leaked and the shower leaked kinda like being in a submarine. On the positive the location can not be better for a visit to Johnson Space Center. Perhaps Don Knotts may have stayed here when filming the Reluctant Astronaut in 1967.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r390741336-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390741336</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>I LOVE THIS PLACE</t>
+  </si>
+  <si>
+    <t>My life currently requires I spend a decent amount of time in hotel rooms in the Nasa Space Center area. I have stayed at numerous in the area and even another location of Extended Stay in the Area. This property is nice, clean, has easy access to Clear lake, the Gulf Freeway, Kemah Boardwalk, it is located near many great restaurants and is located across the street from Nasa Space Center and Galveston Island is just a hop, skip and a jump down the Gulf Freeway. I now have to admit that none of these are the reason (though all great) I LOVE this hotel so much. IT IS BECAUSE THE STAFF IS INCREDIBLE!!! Olga, Kristen and Ahmed always remember my name, and details about my life. They make the worst day or night just a little bit better and make this location feel like home. There are guest who REALLY Extend their STAY and the "regulars here" also make this property wonderful. It is not home but I always feel at home every single time I stay thanks to this EXCEPTIONAL staff.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My life currently requires I spend a decent amount of time in hotel rooms in the Nasa Space Center area. I have stayed at numerous in the area and even another location of Extended Stay in the Area. This property is nice, clean, has easy access to Clear lake, the Gulf Freeway, Kemah Boardwalk, it is located near many great restaurants and is located across the street from Nasa Space Center and Galveston Island is just a hop, skip and a jump down the Gulf Freeway. I now have to admit that none of these are the reason (though all great) I LOVE this hotel so much. IT IS BECAUSE THE STAFF IS INCREDIBLE!!! Olga, Kristen and Ahmed always remember my name, and details about my life. They make the worst day or night just a little bit better and make this location feel like home. There are guest who REALLY Extend their STAY and the "regulars here" also make this property wonderful. It is not home but I always feel at home every single time I stay thanks to this EXCEPTIONAL staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r377833192-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377833192</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Location- Space Centre sooo close</t>
+  </si>
+  <si>
+    <t>Great place to stay if you need to be by the Space centre.It's just across the road and there is a Starbucks within a stones throw of the place. A clean and comfortable accommodation option when you really want something for location rather than anything else.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Great place to stay if you need to be by the Space centre.It's just across the road and there is a Starbucks within a stones throw of the place. A clean and comfortable accommodation option when you really want something for location rather than anything else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r347492680-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347492680</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>I was working in the Houston/nasa rd area on Valentines weekend most everything was booked. I had booked via Hotwire online. Long story short ...Hotwire messed up my reservation and I was having trouble resolving the issue. Crisitie Wiley a manger at the NASA Rd extended stay assured me that she would do anything she could on the end of the hotel to make it right. She did that 110%. I will now base future Houston business trips around this location thanks to this kind lady and my past experiences with extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>I was working in the Houston/nasa rd area on Valentines weekend most everything was booked. I had booked via Hotwire online. Long story short ...Hotwire messed up my reservation and I was having trouble resolving the issue. Crisitie Wiley a manger at the NASA Rd extended stay assured me that she would do anything she could on the end of the hotel to make it right. She did that 110%. I will now base future Houston business trips around this location thanks to this kind lady and my past experiences with extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r346564136-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346564136</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Room that smelled terrible along with other problems</t>
+  </si>
+  <si>
+    <t>The problems we had were:
+•The room had a strong urine smell.
+•The room had a strong cigarette smell (we requested a no smoking room).
+•The covers are so slick they slide off the bed all night long.
+•The window was open halfway, hidden by the drape; it was a very cold day, so the room was icy cold.
+•The bathroom faucet in the sink was dirty and corroded, and the drain area was rusted.
+•The floor tile by the bathtub is coming up.
+•The faucet in the bath tub dripped very loud.  We had to keep the door closed because of the dripping noise.
+•The water pressure in the shower was VERY low.  I had to stand under the shower for a very LONG time to get the shampoo out of my hair.
+•Several times, when we would turn on the light in the bathroom, there was a second or so delay before the light actually came on.
+•Twice, roaches were spotted in the bathroom.
+•The front of the refrigerator is covered in black spots that look like mold / mildew.
+•There were no dishes or silverware in the cabinets and drawers.  This was an extended stay hotel with a stove, sink, refrigerator and microwave.  We have stayed in Extended Stays for many years, and they ALL have dishes and eating utensils.  We had to heat our food in Styrofoam containers.  Heating food in Styrofoam is a dangerous and...The problems we had were:•The room had a strong urine smell.•The room had a strong cigarette smell (we requested a no smoking room).•The covers are so slick they slide off the bed all night long.•The window was open halfway, hidden by the drape; it was a very cold day, so the room was icy cold.•The bathroom faucet in the sink was dirty and corroded, and the drain area was rusted.•The floor tile by the bathtub is coming up.•The faucet in the bath tub dripped very loud.  We had to keep the door closed because of the dripping noise.•The water pressure in the shower was VERY low.  I had to stand under the shower for a very LONG time to get the shampoo out of my hair.•Several times, when we would turn on the light in the bathroom, there was a second or so delay before the light actually came on.•Twice, roaches were spotted in the bathroom.•The front of the refrigerator is covered in black spots that look like mold / mildew.•There were no dishes or silverware in the cabinets and drawers.  This was an extended stay hotel with a stove, sink, refrigerator and microwave.  We have stayed in Extended Stays for many years, and they ALL have dishes and eating utensils.  We had to heat our food in Styrofoam containers.  Heating food in Styrofoam is a dangerous and very unhealthy thing to have to do.  There are toxins released when heating food in Styrofoam.•We could not connect to WiFi in the room. We tried numerous times.  The manager said "that happens.... call tech support". •Lamps in the room, even though plugged in, wouldn't work.  The lamp by the table and one of the lamps on the side of the bed near the windows would not work.• When we complained about the smell the manager said a man could clean our carpets (while we were in the room).  We refused because we didn't want carpet cleaner smell, and having to walk on wet carpets added to the problems.)  The next morning, at 6:30 a.m., when we were leaving, there was no one at the desk.  We waited for a LONG time for someone to show up.......no one did.  A man sitting there drinking coffee said that there's only one person there that early, and they are usually off doing other things.  We finally put our keys in the box by the desk and left.After three days of trying to reach the manager (Olga), we finally got a return call and she agreed to refund our money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>The problems we had were:
+•The room had a strong urine smell.
+•The room had a strong cigarette smell (we requested a no smoking room).
+•The covers are so slick they slide off the bed all night long.
+•The window was open halfway, hidden by the drape; it was a very cold day, so the room was icy cold.
+•The bathroom faucet in the sink was dirty and corroded, and the drain area was rusted.
+•The floor tile by the bathtub is coming up.
+•The faucet in the bath tub dripped very loud.  We had to keep the door closed because of the dripping noise.
+•The water pressure in the shower was VERY low.  I had to stand under the shower for a very LONG time to get the shampoo out of my hair.
+•Several times, when we would turn on the light in the bathroom, there was a second or so delay before the light actually came on.
+•Twice, roaches were spotted in the bathroom.
+•The front of the refrigerator is covered in black spots that look like mold / mildew.
+•There were no dishes or silverware in the cabinets and drawers.  This was an extended stay hotel with a stove, sink, refrigerator and microwave.  We have stayed in Extended Stays for many years, and they ALL have dishes and eating utensils.  We had to heat our food in Styrofoam containers.  Heating food in Styrofoam is a dangerous and...The problems we had were:•The room had a strong urine smell.•The room had a strong cigarette smell (we requested a no smoking room).•The covers are so slick they slide off the bed all night long.•The window was open halfway, hidden by the drape; it was a very cold day, so the room was icy cold.•The bathroom faucet in the sink was dirty and corroded, and the drain area was rusted.•The floor tile by the bathtub is coming up.•The faucet in the bath tub dripped very loud.  We had to keep the door closed because of the dripping noise.•The water pressure in the shower was VERY low.  I had to stand under the shower for a very LONG time to get the shampoo out of my hair.•Several times, when we would turn on the light in the bathroom, there was a second or so delay before the light actually came on.•Twice, roaches were spotted in the bathroom.•The front of the refrigerator is covered in black spots that look like mold / mildew.•There were no dishes or silverware in the cabinets and drawers.  This was an extended stay hotel with a stove, sink, refrigerator and microwave.  We have stayed in Extended Stays for many years, and they ALL have dishes and eating utensils.  We had to heat our food in Styrofoam containers.  Heating food in Styrofoam is a dangerous and very unhealthy thing to have to do.  There are toxins released when heating food in Styrofoam.•We could not connect to WiFi in the room. We tried numerous times.  The manager said "that happens.... call tech support". •Lamps in the room, even though plugged in, wouldn't work.  The lamp by the table and one of the lamps on the side of the bed near the windows would not work.• When we complained about the smell the manager said a man could clean our carpets (while we were in the room).  We refused because we didn't want carpet cleaner smell, and having to walk on wet carpets added to the problems.)  The next morning, at 6:30 a.m., when we were leaving, there was no one at the desk.  We waited for a LONG time for someone to show up.......no one did.  A man sitting there drinking coffee said that there's only one person there that early, and they are usually off doing other things.  We finally put our keys in the box by the desk and left.After three days of trying to reach the manager (Olga), we finally got a return call and she agreed to refund our money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r323639369-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323639369</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Perfect Location for a visit to the Space Center</t>
+  </si>
+  <si>
+    <t>The hotel is right opposite to the Space Center and you cannot beat the location! Room was clean and the hotel had lots of parking space. There is a Starbucks next door which is needed since the "free breakfast" is nothing but coffee, energy bars, apples and those crummy plasticky muffins which taste like mud. All said, there are a zillion places nearby (McD, Starbucks, Dennys, local eats) within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded November 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is right opposite to the Space Center and you cannot beat the location! Room was clean and the hotel had lots of parking space. There is a Starbucks next door which is needed since the "free breakfast" is nothing but coffee, energy bars, apples and those crummy plasticky muffins which taste like mud. All said, there are a zillion places nearby (McD, Starbucks, Dennys, local eats) within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r318050439-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318050439</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Wonderful experience</t>
+  </si>
+  <si>
+    <t>If you are ever in Houston Texas, please stay at the Extended Stay America Hotel on NASA 1.This hotel is very well managed by Ms. Olga and her staff (Ms Christy for example)  and they are very, very accommodating. In addition, the maid service and breakfast are unbelievably awesome. At a prior Extended Stay, within the first half hour, the breakfast food was all gone and never replenished.... and when you ask for a muffin or oatmeal, etc. you were told they were out.... not so at the NASA 1 hotel, they will even go and get your favorite muffin for you!!The rooms were squeaky clean and the staff are so very well trained and professional that they demonstrate that  they know good  customer service every day.  As I travel back home every week to be with my family, it is wonderful to have a home away from home that is reasonably priced, in a very safe area, and clean. Also, discount coupons  are readily available on the Internet  and I have even found some coupons on their hotel website!If I ever come back to Houston, I will only stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>If you are ever in Houston Texas, please stay at the Extended Stay America Hotel on NASA 1.This hotel is very well managed by Ms. Olga and her staff (Ms Christy for example)  and they are very, very accommodating. In addition, the maid service and breakfast are unbelievably awesome. At a prior Extended Stay, within the first half hour, the breakfast food was all gone and never replenished.... and when you ask for a muffin or oatmeal, etc. you were told they were out.... not so at the NASA 1 hotel, they will even go and get your favorite muffin for you!!The rooms were squeaky clean and the staff are so very well trained and professional that they demonstrate that  they know good  customer service every day.  As I travel back home every week to be with my family, it is wonderful to have a home away from home that is reasonably priced, in a very safe area, and clean. Also, discount coupons  are readily available on the Internet  and I have even found some coupons on their hotel website!If I ever come back to Houston, I will only stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r304037007-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304037007</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Good Value and Great Location</t>
+  </si>
+  <si>
+    <t>The room was large with a nice kitchen. Staff readily replaced soiled  towels with new ones. The breakfast was plentiful with fresh fruit. The location is perfect for NASA.  Would definitely return in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>The room was large with a nice kitchen. Staff readily replaced soiled  towels with new ones. The breakfast was plentiful with fresh fruit. The location is perfect for NASA.  Would definitely return in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r293405880-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293405880</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Fleas, no ice machines, horrible</t>
+  </si>
+  <si>
+    <t>Had 2 rooms for one night to attend a special event at Johnson Space Center. I called the day ahead to confirm reservations. Upon arrival we were told that there was only one king room available. We requested 2. As a temporary measure we were given keys to one king room while waiting for the second to be cleaned ( we arrived at 3:30 pm). The room we were given was infested with fleas. Could not get out fast enough.  The third floor has one side of the hallway non-smoking and the other smoking. The entire floor smelled like a pool hall. Then, we told that we would have to wait for new rooms since no one was there to clean dirty ones. Had to go to a local store to get a bag of ice. Breakfast was a joke with stale  muffins and energy bars. Do not stay at this facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Had 2 rooms for one night to attend a special event at Johnson Space Center. I called the day ahead to confirm reservations. Upon arrival we were told that there was only one king room available. We requested 2. As a temporary measure we were given keys to one king room while waiting for the second to be cleaned ( we arrived at 3:30 pm). The room we were given was infested with fleas. Could not get out fast enough.  The third floor has one side of the hallway non-smoking and the other smoking. The entire floor smelled like a pool hall. Then, we told that we would have to wait for new rooms since no one was there to clean dirty ones. Had to go to a local store to get a bag of ice. Breakfast was a joke with stale  muffins and energy bars. Do not stay at this facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r290934286-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290934286</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>The staff is very helpful and has a good attitude</t>
+  </si>
+  <si>
+    <t>Mary at the front desk is a joy to deal with.  She is very helpful with all of my questions and needs as well as the rest of the staff.  This hotel has good rates especially if you plan on staying for sixty days or more.  This is not a fancy hotel but if you plan on staying in the area for an extended period of time it might work well for your budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Mary at the front desk is a joy to deal with.  She is very helpful with all of my questions and needs as well as the rest of the staff.  This hotel has good rates especially if you plan on staying for sixty days or more.  This is not a fancy hotel but if you plan on staying in the area for an extended period of time it might work well for your budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r289613120-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289613120</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Fleas and more...</t>
+  </si>
+  <si>
+    <t>Place is a dump! If you are a non-smoker and they put you on the 3rd floor-LEAVE. The 3rd floor is 1/2 smoking 1/2 non-smoking, but the whole floor reeks of smoke. On top of that, the 1st room we were assigned had fleas. We asked to move and we were told that we could move to a queen or double because all of the king rooms were dirty and they did not know if the maid service would get to them. Bye Felicia!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Place is a dump! If you are a non-smoker and they put you on the 3rd floor-LEAVE. The 3rd floor is 1/2 smoking 1/2 non-smoking, but the whole floor reeks of smoke. On top of that, the 1st room we were assigned had fleas. We asked to move and we were told that we could move to a queen or double because all of the king rooms were dirty and they did not know if the maid service would get to them. Bye Felicia!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r281668657-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281668657</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Very Rough on the inside...</t>
+  </si>
+  <si>
+    <t>This hotel was a disaster on the inside. Start with the (1) elevator, 'smoke smelling' filled hallways, then add the leaking bathtub fixture, nasty obviously not cleaned sink faucet with mildew and the overall 'wet' smell inside the room. It was cheap and my hotel points helped pay for it. But I will do not recommend it and will not be staying there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was a disaster on the inside. Start with the (1) elevator, 'smoke smelling' filled hallways, then add the leaking bathtub fixture, nasty obviously not cleaned sink faucet with mildew and the overall 'wet' smell inside the room. It was cheap and my hotel points helped pay for it. But I will do not recommend it and will not be staying there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r271876211-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271876211</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Plants</t>
+  </si>
+  <si>
+    <t>When Mary is working the the front desk she goes above and beyond to help and makes sure I know all the information I need, always with a smile on her face, if I have any questions I know she will go out of her way to find the answers or fix the problem, the hotel is a great location and customer service, I just wanted y'all to know how much a great job Mary does to help her customer's. Will definitely come back because of the great service from her and the others but Mary did stand out in her job ethic.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>When Mary is working the the front desk she goes above and beyond to help and makes sure I know all the information I need, always with a smile on her face, if I have any questions I know she will go out of her way to find the answers or fix the problem, the hotel is a great location and customer service, I just wanted y'all to know how much a great job Mary does to help her customer's. Will definitely come back because of the great service from her and the others but Mary did stand out in her job ethic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r270276531-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270276531</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Not great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit was in need of repair. Tub, fridge, lighting, and linens all worse for wear. It's a budget stay, so you can't be expecting resort quality, but it should at least feel as if they're trying. On the bright side, the price was right, and it's next to a Starbucks. </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r249204426-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249204426</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Nicely Located</t>
+  </si>
+  <si>
+    <t>I have been at this hotel Since August of last year, Olga/Krystin/Ahmed are the best. Facility is well maintained. The staff and manager are friendly and curteous , respectful of needs. Housekeeping does a great job on the rooms. This Hotel is in a busy area and is quite often full , the Lobby is a great place to meet and talk with other guests staying at the Hotel, I feel like this is a Home away from Home.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>I have been at this hotel Since August of last year, Olga/Krystin/Ahmed are the best. Facility is well maintained. The staff and manager are friendly and curteous , respectful of needs. Housekeeping does a great job on the rooms. This Hotel is in a busy area and is quite often full , the Lobby is a great place to meet and talk with other guests staying at the Hotel, I feel like this is a Home away from Home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r247860632-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247860632</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Great for long term stays</t>
+  </si>
+  <si>
+    <t>I have been periodically staying in this hotel for almost 8 months now.The facility is well maintained. There are a number of eat-out locations nearby.The building may be a bit old, but the upkeep is excellent.The staff and the manager are friendly and courteous. The customer service is never intrusive unlike some other chains.I have received great service and highly recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded January 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2015</t>
+  </si>
+  <si>
+    <t>I have been periodically staying in this hotel for almost 8 months now.The facility is well maintained. There are a number of eat-out locations nearby.The building may be a bit old, but the upkeep is excellent.The staff and the manager are friendly and courteous. The customer service is never intrusive unlike some other chains.I have received great service and highly recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r244893439-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244893439</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Excellent value and service</t>
+  </si>
+  <si>
+    <t>If you're looking for a place to stay while visiting Johnson Space Center, this is by far the best option on NASA Road 1.  The staff are extremely accommodating, it's right across the street from Space Center Houston, and the rates are very reasonable.  Luby's is right next door for affordable dining.  Dollar for dollar, I can't recommend this hotel highly enough.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r235262409-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235262409</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Return Visit - Miserable experience</t>
+  </si>
+  <si>
+    <t>I have stayed here a couple of time and even written a great review.  Not sure what happened this time - maybe change in management - but awful visit.  We arrived late - about 11pm - and went into the lobby for check in.   No staff there.  We went back outside to ask the two ladies smoking at the front door if they knew where the desk clerk was.  Turns out one of them was the desk clerk and she was not coming in to help us until she finished her cigarette.  We were given a handicapped room.  While I totally support having these rooms, I think a customer should be asked before being given one.  I literally had to sit on the floor to use the microwave.  No bathtub and the shower curtain was not long enough so water leaked all over the floor.  We were right next to the elevator so we heard that for 4 straight nights.  We could not open our drapes since our window was right next to the entrance and anybody walking in could not miss our room.  Had to keep the room dark for 4 days!!!   They no longer supply an alarm clock.  You also have to request kitchen items since, as the desk clerk told us, people were stealing them.  The fridge in our room did not get cold enough to keep milk in there - even on the coldest setting.  I...I have stayed here a couple of time and even written a great review.  Not sure what happened this time - maybe change in management - but awful visit.  We arrived late - about 11pm - and went into the lobby for check in.   No staff there.  We went back outside to ask the two ladies smoking at the front door if they knew where the desk clerk was.  Turns out one of them was the desk clerk and she was not coming in to help us until she finished her cigarette.  We were given a handicapped room.  While I totally support having these rooms, I think a customer should be asked before being given one.  I literally had to sit on the floor to use the microwave.  No bathtub and the shower curtain was not long enough so water leaked all over the floor.  We were right next to the elevator so we heard that for 4 straight nights.  We could not open our drapes since our window was right next to the entrance and anybody walking in could not miss our room.  Had to keep the room dark for 4 days!!!   They no longer supply an alarm clock.  You also have to request kitchen items since, as the desk clerk told us, people were stealing them.  The fridge in our room did not get cold enough to keep milk in there - even on the coldest setting.  I took towels up to the front desk at 8:30 at night to exchange them for clean ones and was told they were out of everything but bath mats and wash clothes.  The clerk this night said she was going to do laundry in a while so I should come back about 10:00.  If you are sitting there and know you are out of towels - why hadn't the clerk already started a wash load.  No sense of urgency - just whatever.  There are many more things that were wrong with this visit.  We eventually stopped going to the front desk about them because they did not do anything.  I will not be back.  Headed to Comfort Inn which is near and has a fridge and microwave in each room.  I truly apologize to anyone who read my positive review and went to this hotel and had our experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here a couple of time and even written a great review.  Not sure what happened this time - maybe change in management - but awful visit.  We arrived late - about 11pm - and went into the lobby for check in.   No staff there.  We went back outside to ask the two ladies smoking at the front door if they knew where the desk clerk was.  Turns out one of them was the desk clerk and she was not coming in to help us until she finished her cigarette.  We were given a handicapped room.  While I totally support having these rooms, I think a customer should be asked before being given one.  I literally had to sit on the floor to use the microwave.  No bathtub and the shower curtain was not long enough so water leaked all over the floor.  We were right next to the elevator so we heard that for 4 straight nights.  We could not open our drapes since our window was right next to the entrance and anybody walking in could not miss our room.  Had to keep the room dark for 4 days!!!   They no longer supply an alarm clock.  You also have to request kitchen items since, as the desk clerk told us, people were stealing them.  The fridge in our room did not get cold enough to keep milk in there - even on the coldest setting.  I...I have stayed here a couple of time and even written a great review.  Not sure what happened this time - maybe change in management - but awful visit.  We arrived late - about 11pm - and went into the lobby for check in.   No staff there.  We went back outside to ask the two ladies smoking at the front door if they knew where the desk clerk was.  Turns out one of them was the desk clerk and she was not coming in to help us until she finished her cigarette.  We were given a handicapped room.  While I totally support having these rooms, I think a customer should be asked before being given one.  I literally had to sit on the floor to use the microwave.  No bathtub and the shower curtain was not long enough so water leaked all over the floor.  We were right next to the elevator so we heard that for 4 straight nights.  We could not open our drapes since our window was right next to the entrance and anybody walking in could not miss our room.  Had to keep the room dark for 4 days!!!   They no longer supply an alarm clock.  You also have to request kitchen items since, as the desk clerk told us, people were stealing them.  The fridge in our room did not get cold enough to keep milk in there - even on the coldest setting.  I took towels up to the front desk at 8:30 at night to exchange them for clean ones and was told they were out of everything but bath mats and wash clothes.  The clerk this night said she was going to do laundry in a while so I should come back about 10:00.  If you are sitting there and know you are out of towels - why hadn't the clerk already started a wash load.  No sense of urgency - just whatever.  There are many more things that were wrong with this visit.  We eventually stopped going to the front desk about them because they did not do anything.  I will not be back.  Headed to Comfort Inn which is near and has a fridge and microwave in each room.  I truly apologize to anyone who read my positive review and went to this hotel and had our experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r234535451-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234535451</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>I have been there with my wife, just a great and must visit place if you will travel to houston. It is amazing to see all the spaceships rockets,materials which were in space already and which will be as well. A very different feeling. All day you can have fun and will be never boring. The only negative is the food court,there is not any good choice of food,better you bring some sandwiches instead buying there 2nd quality fast food.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded October 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2014</t>
+  </si>
+  <si>
+    <t>I have been there with my wife, just a great and must visit place if you will travel to houston. It is amazing to see all the spaceships rockets,materials which were in space already and which will be as well. A very different feeling. All day you can have fun and will be never boring. The only negative is the food court,there is not any good choice of food,better you bring some sandwiches instead buying there 2nd quality fast food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r232275286-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232275286</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Everything you want in a hotel room and a staff that genuinely cares about your experience.</t>
+  </si>
+  <si>
+    <t>This hotel has and does it all.  While there are cheaper options for extended stays, this hotel is a bargain for what you get.  The rooms are spacious and clean.  The amenities are adequate and modern.  The exterior of the property is both well maintained and inviting.  The location is in a nice suburb of Houston and provides easy access to I-45.  Best of all, the staff members from the manager on down treat you like a welcome guest.  They aren't merely doing their jobs.  Everyone I encountered was helpful, friendly and courteous.  Some extended stay type hotels have a certain "sleeziness" to them, but this isn't one of them.  It is the closest you'll find to a home away from home at a reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded October 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2014</t>
+  </si>
+  <si>
+    <t>This hotel has and does it all.  While there are cheaper options for extended stays, this hotel is a bargain for what you get.  The rooms are spacious and clean.  The amenities are adequate and modern.  The exterior of the property is both well maintained and inviting.  The location is in a nice suburb of Houston and provides easy access to I-45.  Best of all, the staff members from the manager on down treat you like a welcome guest.  They aren't merely doing their jobs.  Everyone I encountered was helpful, friendly and courteous.  Some extended stay type hotels have a certain "sleeziness" to them, but this isn't one of them.  It is the closest you'll find to a home away from home at a reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r224179071-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224179071</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Go Elsewhere</t>
+  </si>
+  <si>
+    <t>As I was arriving, saw a man in his car just outside the lobby.  Then a woman walks out of the lobby and goes to the driver's window.  Hmm, that looked suspiciously like a pimp and hooker.  But I check in anyway as it's late.  A surprise in my room: the overwhelming smell of potpourri and/or cinnamon.  After 10 minutes, I locate the problem: an air freshener plug-in.  I remove the culprit and try to rid the room of the smell.  I can't and begin having sinus problems.  Go to the lobby and get another room.  The clerk tells me the maids like to leave air fresheners in the rooms.  Um what???  While waiting for the new room, an obvious pimp and hooker come into the lobby behind me.  The new room  smells faintly of cigarette smoke. The hallways smell of some type of putrid food.  The elevator is extremely hot. I debate whether to just leave but I stay to see if I can fall asleep. 
+I do sleep but only a little.  I use my phone for an alarm.  I don't use the room clock.  The room alarm goes off at 2:00 am and scares the hell out of me.  Eventually I am able to fall asleep again.  I wake up and look at the clock again: OMG I overslept!  My phone alarm must not have gone off.  I jump out of bed and start rushing around.  I...As I was arriving, saw a man in his car just outside the lobby.  Then a woman walks out of the lobby and goes to the driver's window.  Hmm, that looked suspiciously like a pimp and hooker.  But I check in anyway as it's late.  A surprise in my room: the overwhelming smell of potpourri and/or cinnamon.  After 10 minutes, I locate the problem: an air freshener plug-in.  I remove the culprit and try to rid the room of the smell.  I can't and begin having sinus problems.  Go to the lobby and get another room.  The clerk tells me the maids like to leave air fresheners in the rooms.  Um what???  While waiting for the new room, an obvious pimp and hooker come into the lobby behind me.  The new room  smells faintly of cigarette smoke. The hallways smell of some type of putrid food.  The elevator is extremely hot. I debate whether to just leave but I stay to see if I can fall asleep. I do sleep but only a little.  I use my phone for an alarm.  I don't use the room clock.  The room alarm goes off at 2:00 am and scares the hell out of me.  Eventually I am able to fall asleep again.  I wake up and look at the clock again: OMG I overslept!  My phone alarm must not have gone off.  I jump out of bed and start rushing around.  I look at my phone to see why it didn't go off.  Oh ok, someone RESET the room clock an hour forward!  I am not late, I am EARLY!!!  You would think the hotel would check this.  I just get ready and leave, so glad to be out of there.  The good news?  There are no pimps or hookers at 6:45 am on a Sunday at Extended Stay.  Never this hotel or even this entire chain again.  I don't give second chances.MoreShow less</t>
+  </si>
+  <si>
+    <t>As I was arriving, saw a man in his car just outside the lobby.  Then a woman walks out of the lobby and goes to the driver's window.  Hmm, that looked suspiciously like a pimp and hooker.  But I check in anyway as it's late.  A surprise in my room: the overwhelming smell of potpourri and/or cinnamon.  After 10 minutes, I locate the problem: an air freshener plug-in.  I remove the culprit and try to rid the room of the smell.  I can't and begin having sinus problems.  Go to the lobby and get another room.  The clerk tells me the maids like to leave air fresheners in the rooms.  Um what???  While waiting for the new room, an obvious pimp and hooker come into the lobby behind me.  The new room  smells faintly of cigarette smoke. The hallways smell of some type of putrid food.  The elevator is extremely hot. I debate whether to just leave but I stay to see if I can fall asleep. 
+I do sleep but only a little.  I use my phone for an alarm.  I don't use the room clock.  The room alarm goes off at 2:00 am and scares the hell out of me.  Eventually I am able to fall asleep again.  I wake up and look at the clock again: OMG I overslept!  My phone alarm must not have gone off.  I jump out of bed and start rushing around.  I...As I was arriving, saw a man in his car just outside the lobby.  Then a woman walks out of the lobby and goes to the driver's window.  Hmm, that looked suspiciously like a pimp and hooker.  But I check in anyway as it's late.  A surprise in my room: the overwhelming smell of potpourri and/or cinnamon.  After 10 minutes, I locate the problem: an air freshener plug-in.  I remove the culprit and try to rid the room of the smell.  I can't and begin having sinus problems.  Go to the lobby and get another room.  The clerk tells me the maids like to leave air fresheners in the rooms.  Um what???  While waiting for the new room, an obvious pimp and hooker come into the lobby behind me.  The new room  smells faintly of cigarette smoke. The hallways smell of some type of putrid food.  The elevator is extremely hot. I debate whether to just leave but I stay to see if I can fall asleep. I do sleep but only a little.  I use my phone for an alarm.  I don't use the room clock.  The room alarm goes off at 2:00 am and scares the hell out of me.  Eventually I am able to fall asleep again.  I wake up and look at the clock again: OMG I overslept!  My phone alarm must not have gone off.  I jump out of bed and start rushing around.  I look at my phone to see why it didn't go off.  Oh ok, someone RESET the room clock an hour forward!  I am not late, I am EARLY!!!  You would think the hotel would check this.  I just get ready and leave, so glad to be out of there.  The good news?  There are no pimps or hookers at 6:45 am on a Sunday at Extended Stay.  Never this hotel or even this entire chain again.  I don't give second chances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r218749002-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>218749002</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>The staff makes all the difference</t>
+  </si>
+  <si>
+    <t>I am in this temporary home for a few weeks and I wanted to commend the staff.  Specifically, Mary at the front desk. While doing laundry one evening I witness another resident yelling profanities at her, threatening behavior and inappropriate conduct I could not imagine. Mary, with a firm smile continued to offer support but remained kind. I have asked for help often... where's this? how can I get one of these? is there one close to here? And while all the staff has been satisfactory I have found that Mary exceeds the normal performance by engaging residents, offering help before it is asked, and not disappearing from the desk for extended periods.  She needs a promotion and a raise...and should train the others.The only area I see for improvement is keeping the trash rooms empty. And also expanding the breakfast. There is only fruit, muffin, instant oatmeal or a granola bar. All the items are the same everyday. Maybe yogurt or different fruits, bagels. Not a free breakfast compared to other hotels. But there is coffee which is good.  Shannon NMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>I am in this temporary home for a few weeks and I wanted to commend the staff.  Specifically, Mary at the front desk. While doing laundry one evening I witness another resident yelling profanities at her, threatening behavior and inappropriate conduct I could not imagine. Mary, with a firm smile continued to offer support but remained kind. I have asked for help often... where's this? how can I get one of these? is there one close to here? And while all the staff has been satisfactory I have found that Mary exceeds the normal performance by engaging residents, offering help before it is asked, and not disappearing from the desk for extended periods.  She needs a promotion and a raise...and should train the others.The only area I see for improvement is keeping the trash rooms empty. And also expanding the breakfast. There is only fruit, muffin, instant oatmeal or a granola bar. All the items are the same everyday. Maybe yogurt or different fruits, bagels. Not a free breakfast compared to other hotels. But there is coffee which is good.  Shannon NMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r217883033-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217883033</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor customer service &amp; deceitful </t>
+  </si>
+  <si>
+    <t>I stayed 1 night on July 26,2014 &amp; I payed for 2double beds to be in my room. I complained to the front desk &amp; they tell me they made a mistake on over booking. Worst stay ever!! Hair in shower &amp; bed, nobody reimbursed me my money &amp; I never heard from the manager name Olga and mr Ahmed told me I would be reimbursed. Stay away from here the bad reviews are true!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>I stayed 1 night on July 26,2014 &amp; I payed for 2double beds to be in my room. I complained to the front desk &amp; they tell me they made a mistake on over booking. Worst stay ever!! Hair in shower &amp; bed, nobody reimbursed me my money &amp; I never heard from the manager name Olga and mr Ahmed told me I would be reimbursed. Stay away from here the bad reviews are true!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r216722215-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216722215</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>If you like clean places stay away from this one. Mold in the shower, bugs in the lamp, and the front desk is not 24/7. The smoke alarm was broken so we went to the front desk at night and they gave us batteries to put in and it didn't work so we had to go into another room and take one. We had to do everything they didn't want to do anythingMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded July 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2014</t>
+  </si>
+  <si>
+    <t>If you like clean places stay away from this one. Mold in the shower, bugs in the lamp, and the front desk is not 24/7. The smoke alarm was broken so we went to the front desk at night and they gave us batteries to put in and it didn't work so we had to go into another room and take one. We had to do everything they didn't want to do anythingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r215962964-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215962964</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Unsanitary - avoid this hotel</t>
+  </si>
+  <si>
+    <t>We tried to check-in at 3pm and were told to come back because our rooms were not ready.  We came back at 3pm and were given 2 rooms on the extreme opposite ends of the floor (even though I explicitly asked for rooms near each other in the reservation and multiple times during the check-in process).  After seeing how far apart the rooms were, we went back to the front desk and asked if they could get us rooms any closer.  They told us another room across the hall would be ready later, but they didn't know when.  We accepted that and told them to call us when it was ready.  We checked into our first room and waited.  About 2 hours later we called and they told us the room was ready but they forgot to call us to let us know.
+The first room we checked into had multiple issues with the condition of the room... 1) the room smelled overwhelmingly like a dirty wet dog; 2) I pulled 4 plates out of the cupboard and 3 of the 4 had a hair on the plate; 3) the room had 3 forks, 1 knife and no spoons and when we asked for spoons the front desk gave 2 and said that is all they had; 4) the ottoman in the room was stained; 5) the bathroom shower handle fixture was surrounded by heavy corrosion, the shower curtain had...We tried to check-in at 3pm and were told to come back because our rooms were not ready.  We came back at 3pm and were given 2 rooms on the extreme opposite ends of the floor (even though I explicitly asked for rooms near each other in the reservation and multiple times during the check-in process).  After seeing how far apart the rooms were, we went back to the front desk and asked if they could get us rooms any closer.  They told us another room across the hall would be ready later, but they didn't know when.  We accepted that and told them to call us when it was ready.  We checked into our first room and waited.  About 2 hours later we called and they told us the room was ready but they forgot to call us to let us know.The first room we checked into had multiple issues with the condition of the room... 1) the room smelled overwhelmingly like a dirty wet dog; 2) I pulled 4 plates out of the cupboard and 3 of the 4 had a hair on the plate; 3) the room had 3 forks, 1 knife and no spoons and when we asked for spoons the front desk gave 2 and said that is all they had; 4) the ottoman in the room was stained; 5) the bathroom shower handle fixture was surrounded by heavy corrosion, the shower curtain had a fishing weight attached to it, and the ceiling and walls in the bathroom were heavily covered with mold; and lastly 6) there were several places on the walls in the room where it looked like someone had wiped bodily fluid on the walls. The second room was in much better condition.  It did not have any odor issues, the furniture was not stained and the walls in the room were free of fluid smears.  However, there still issues... 1) there was a hair on the kitchen counter (which had just been cleaned); 2) there was a baby toy on the floor near the bed which indicated they had not been too careful in cleaning; 3) while the fixture and curtain in the shower were ok, the ceiling in the bathroom was covered in mold (albeit a bit less than the first room); and 4) the chairs at the table didn't match (one was a desk chair).  In terms of the "grab &amp; go breakfast" we were told there would be granola bars, muffins and fruit.  There was only granola bars, no muffins and no fruit.  We attempted to get breakfast at 730am so we asked if we were too late for the other things and the front desk person told us they only had granola bars that day.  Another issue we had was with the price we were charged for the room and the related service.  My printed reservation (which I showed at check-in) showed the room rate of $79.99, but my check-in receipt said $99.99 per room.  The gentleman who checked me in said that he couldn't fix it at check-in, but that the process was the adjust it at check-out.  When we checked out before 9am, I told the front desk person that the gentleman the day before said that she could correct my room rate at check-out.  She said that it would have to be done by her manager who came in at noon.  She took my cellphone number and said she would call me around noon to let me know the correction took place.  Needless to say, I never received a call, text, voicemail or email. Four days later (today) I called the hotel and spoke with a manager.  She confirmed that the corporate process was that the room rate was to be corrected at checkout.  She had me forward her my email reservations and then she processed the credit for me.  The manager was very customer service-focused and professional.  Overall, my impression of the staff working on Sunday (when we checked-in) was that they were inexperienced, immature and overwhelmed with their jobs.  I was staying at the hotel with my wife and 5 kids, all of whom commented quite a bit about the unsanitary conditions they found in the room and the wet dog smell.  We decided to spend our time in the cleaner room and then just get to sleep since we had been travelling all day and didn't have the energy to look for another hotel room.MoreShow less</t>
+  </si>
+  <si>
+    <t>We tried to check-in at 3pm and were told to come back because our rooms were not ready.  We came back at 3pm and were given 2 rooms on the extreme opposite ends of the floor (even though I explicitly asked for rooms near each other in the reservation and multiple times during the check-in process).  After seeing how far apart the rooms were, we went back to the front desk and asked if they could get us rooms any closer.  They told us another room across the hall would be ready later, but they didn't know when.  We accepted that and told them to call us when it was ready.  We checked into our first room and waited.  About 2 hours later we called and they told us the room was ready but they forgot to call us to let us know.
+The first room we checked into had multiple issues with the condition of the room... 1) the room smelled overwhelmingly like a dirty wet dog; 2) I pulled 4 plates out of the cupboard and 3 of the 4 had a hair on the plate; 3) the room had 3 forks, 1 knife and no spoons and when we asked for spoons the front desk gave 2 and said that is all they had; 4) the ottoman in the room was stained; 5) the bathroom shower handle fixture was surrounded by heavy corrosion, the shower curtain had...We tried to check-in at 3pm and were told to come back because our rooms were not ready.  We came back at 3pm and were given 2 rooms on the extreme opposite ends of the floor (even though I explicitly asked for rooms near each other in the reservation and multiple times during the check-in process).  After seeing how far apart the rooms were, we went back to the front desk and asked if they could get us rooms any closer.  They told us another room across the hall would be ready later, but they didn't know when.  We accepted that and told them to call us when it was ready.  We checked into our first room and waited.  About 2 hours later we called and they told us the room was ready but they forgot to call us to let us know.The first room we checked into had multiple issues with the condition of the room... 1) the room smelled overwhelmingly like a dirty wet dog; 2) I pulled 4 plates out of the cupboard and 3 of the 4 had a hair on the plate; 3) the room had 3 forks, 1 knife and no spoons and when we asked for spoons the front desk gave 2 and said that is all they had; 4) the ottoman in the room was stained; 5) the bathroom shower handle fixture was surrounded by heavy corrosion, the shower curtain had a fishing weight attached to it, and the ceiling and walls in the bathroom were heavily covered with mold; and lastly 6) there were several places on the walls in the room where it looked like someone had wiped bodily fluid on the walls. The second room was in much better condition.  It did not have any odor issues, the furniture was not stained and the walls in the room were free of fluid smears.  However, there still issues... 1) there was a hair on the kitchen counter (which had just been cleaned); 2) there was a baby toy on the floor near the bed which indicated they had not been too careful in cleaning; 3) while the fixture and curtain in the shower were ok, the ceiling in the bathroom was covered in mold (albeit a bit less than the first room); and 4) the chairs at the table didn't match (one was a desk chair).  In terms of the "grab &amp; go breakfast" we were told there would be granola bars, muffins and fruit.  There was only granola bars, no muffins and no fruit.  We attempted to get breakfast at 730am so we asked if we were too late for the other things and the front desk person told us they only had granola bars that day.  Another issue we had was with the price we were charged for the room and the related service.  My printed reservation (which I showed at check-in) showed the room rate of $79.99, but my check-in receipt said $99.99 per room.  The gentleman who checked me in said that he couldn't fix it at check-in, but that the process was the adjust it at check-out.  When we checked out before 9am, I told the front desk person that the gentleman the day before said that she could correct my room rate at check-out.  She said that it would have to be done by her manager who came in at noon.  She took my cellphone number and said she would call me around noon to let me know the correction took place.  Needless to say, I never received a call, text, voicemail or email. Four days later (today) I called the hotel and spoke with a manager.  She confirmed that the corporate process was that the room rate was to be corrected at checkout.  She had me forward her my email reservations and then she processed the credit for me.  The manager was very customer service-focused and professional.  Overall, my impression of the staff working on Sunday (when we checked-in) was that they were inexperienced, immature and overwhelmed with their jobs.  I was staying at the hotel with my wife and 5 kids, all of whom commented quite a bit about the unsanitary conditions they found in the room and the wet dog smell.  We decided to spend our time in the cleaner room and then just get to sleep since we had been travelling all day and didn't have the energy to look for another hotel room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r211664889-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211664889</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>We arrived near 10:30 on a Saturday night and left by 9am the next day. Stayed on the 2nd floor. The hotel is in a decent neighborhood and it was quiet in the hotel. The bed is hard as are the pillows. This hotel doesn't have a pool. If you need a quiet safe place to sleep this is a good place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>We arrived near 10:30 on a Saturday night and left by 9am the next day. Stayed on the 2nd floor. The hotel is in a decent neighborhood and it was quiet in the hotel. The bed is hard as are the pillows. This hotel doesn't have a pool. If you need a quiet safe place to sleep this is a good place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r207348057-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207348057</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Clean and Welcoming</t>
+  </si>
+  <si>
+    <t>Great location. Very friendly and professional staff.  We stayed for three nights for a long weekend and really felt relaxed and refreshed.  Thanks to Olga and her staff for a wonderful weekend.  We will return!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Great location. Very friendly and professional staff.  We stayed for three nights for a long weekend and really felt relaxed and refreshed.  Thanks to Olga and her staff for a wonderful weekend.  We will return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r202956033-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202956033</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Soooo Dirty!!!!</t>
+  </si>
+  <si>
+    <t>Ok we drove into Houston expecting no problem finding a hotel, however everything was booked!! We finally got a room here after a huge ordeal of booking over the phone, then the front desk refusing us a room, saying they were booked... anyway, we got into our room about 1:30am and it was disgusting... dirty towels in the bathroom, public hair on the toilet, stands in the toilet, used toilet paper, filthy countertops with water stains and more hair and the comforter had blood stains... dirty cup on the kitchenette counter and trash on the floor. I have pictures I will upload.  We had to wake up early for a cruise and just slept fully clothed, not touching anything.  We checked out early to head towards our final destination.  Highly recommend you skip this one.  Wow.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded April 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2014</t>
+  </si>
+  <si>
+    <t>Ok we drove into Houston expecting no problem finding a hotel, however everything was booked!! We finally got a room here after a huge ordeal of booking over the phone, then the front desk refusing us a room, saying they were booked... anyway, we got into our room about 1:30am and it was disgusting... dirty towels in the bathroom, public hair on the toilet, stands in the toilet, used toilet paper, filthy countertops with water stains and more hair and the comforter had blood stains... dirty cup on the kitchenette counter and trash on the floor. I have pictures I will upload.  We had to wake up early for a cruise and just slept fully clothed, not touching anything.  We checked out early to head towards our final destination.  Highly recommend you skip this one.  Wow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r199395817-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199395817</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Christmas Trip</t>
+  </si>
+  <si>
+    <t>It is literally right across the street from Nasa, within walking distance to restaurants, cvs, and Nasa landmarks.  The breakfast includes the standard waffle iron cream cheese bagel setup.  Limited seating if the area has a few people eating.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r193383455-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193383455</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>Couple of Nights - Very Satisfied</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights while visiting the Space Center across the road. The room was clean on check-in. The bed sheets were clean and the mattress good quality. All appliances worked OK and were clean. Not the best place I have stayed in, but certainly worth the money and extremely convenient for the Space Center.McDonalds across the road, Walgreens next door. Very convenient if you want to get a few things to cook in the room. Chinese and Italian restaurants a few minutes walk up the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded February 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights while visiting the Space Center across the road. The room was clean on check-in. The bed sheets were clean and the mattress good quality. All appliances worked OK and were clean. Not the best place I have stayed in, but certainly worth the money and extremely convenient for the Space Center.McDonalds across the road, Walgreens next door. Very convenient if you want to get a few things to cook in the room. Chinese and Italian restaurants a few minutes walk up the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r191845966-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191845966</t>
+  </si>
+  <si>
+    <t>01/23/2014</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>Have stayed here now several times and will not return.  It needs a good cleaning, carpet and furniture have stains.  I understand they only clean once a week but I was there for 9 days and asked for cleaning and it was never done.Staff was friendly and the location for me was great, lots of restaurants and good walking after work.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded January 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2014</t>
+  </si>
+  <si>
+    <t>Have stayed here now several times and will not return.  It needs a good cleaning, carpet and furniture have stains.  I understand they only clean once a week but I was there for 9 days and asked for cleaning and it was never done.Staff was friendly and the location for me was great, lots of restaurants and good walking after work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r191275261-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191275261</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>good at a reasonable price</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay while working temporarily in the area, its been a good value for the price. The room and lobby are clean and if you have a pet, its pet friendly. I like that its close to Kemah and Galveston, NASA is across the street. There's a variety of restaurants and stores in walking distance or within a few miles driving distance. The rooms are large, I've stayed here before and its been a good choice. The queen size bed is comfortable. On the other hand, if you need to be in downtown Houston, the travel time will vary because I-45N can be congested during weekdays.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r173804011-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173804011</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>No pool no coffee</t>
+  </si>
+  <si>
+    <t>Reasonable rates if you are in the area to tour NASA.  No pool.  Breakfast was a packaged breakfast bar and there was no coffee.  None. She said they were having trouble with the hot water?? Went to Starbucks next door. Room was clean. In room wifi worked great. Lots of restaurants nearby. Kemah attractions  a close drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded August 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2013</t>
+  </si>
+  <si>
+    <t>Reasonable rates if you are in the area to tour NASA.  No pool.  Breakfast was a packaged breakfast bar and there was no coffee.  None. She said they were having trouble with the hot water?? Went to Starbucks next door. Room was clean. In room wifi worked great. Lots of restaurants nearby. Kemah attractions  a close drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r173023303-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173023303</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Convinient</t>
+  </si>
+  <si>
+    <t>Room was clean and very accommodating.   It had a full size refrigerator and a kitchenette.  It's located right across from NASA's Johnson Space Center and only 30 minutes away from Galveston.Kitchenette had cooking utensils and flatware in the cupboard.  Front desk staff were very friendly.  Free breakfast was okay.  Overall we loved the location of the hotel.  We went to Galveston on our first day and went to the Johnson Space Center across the street on our 2nd day.Overall it was a very good value for family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded August 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2013</t>
+  </si>
+  <si>
+    <t>Room was clean and very accommodating.   It had a full size refrigerator and a kitchenette.  It's located right across from NASA's Johnson Space Center and only 30 minutes away from Galveston.Kitchenette had cooking utensils and flatware in the cupboard.  Front desk staff were very friendly.  Free breakfast was okay.  Overall we loved the location of the hotel.  We went to Galveston on our first day and went to the Johnson Space Center across the street on our 2nd day.Overall it was a very good value for family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r171911020-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171911020</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>AWFUL. AWFUL AWFUL</t>
+  </si>
+  <si>
+    <t>Dirty, Dirty Dirty and did I mention DIRTY??????   Smelled horrible, Breakfast... HA!  A fold away table in the lobby with cold coffee and packaged stale Danishes.  Just don't read further.  Don't stay here. And DONT LOOK FOR THE POOL.... You will be diving in the parking lot!MoreShow less</t>
+  </si>
+  <si>
+    <t>Dirty, Dirty Dirty and did I mention DIRTY??????   Smelled horrible, Breakfast... HA!  A fold away table in the lobby with cold coffee and packaged stale Danishes.  Just don't read further.  Don't stay here. And DONT LOOK FOR THE POOL.... You will be diving in the parking lot!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r164553499-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164553499</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>Was frustrated right out as they charged me extra for a room with two beds after originally just booking one. I travel regularly buying on Priceline &amp; Hotwire &amp; have never been charged for that request. So likely will not stay here again though I do like the location. The service was not overly friendly but was professional enough. Considering the low price I paid however it was a nice building, clean room with a small kitchenette. The property seemed to be very well maintained. The breakfast was very sparse. However when considering the low price &amp; nice facility its not a bad choice. I would rate lower if I had to pay much more. But it is a nice, safe, clean motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded June 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2013</t>
+  </si>
+  <si>
+    <t>Was frustrated right out as they charged me extra for a room with two beds after originally just booking one. I travel regularly buying on Priceline &amp; Hotwire &amp; have never been charged for that request. So likely will not stay here again though I do like the location. The service was not overly friendly but was professional enough. Considering the low price I paid however it was a nice building, clean room with a small kitchenette. The property seemed to be very well maintained. The breakfast was very sparse. However when considering the low price &amp; nice facility its not a bad choice. I would rate lower if I had to pay much more. But it is a nice, safe, clean motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r160986439-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160986439</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>This really is a good place to stay..Great staff</t>
+  </si>
+  <si>
+    <t>My best friend is here in Houston on business. She got here in February and is still staying at this Extended Stay America across from Nasa. I have visited her there on weekends and have not been dissapointed in any way at all. The staff is nice, the place is clean, quick breakfast is fine. Security is not a problem and neither is parking. I will be telling my friends about this place and stay in one when traveling. We have never had a problem yet and I want to thank the Manager for running such a great place to stay for Months at a time. I rate A+ in every way.MarilynMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>My best friend is here in Houston on business. She got here in February and is still staying at this Extended Stay America across from Nasa. I have visited her there on weekends and have not been dissapointed in any way at all. The staff is nice, the place is clean, quick breakfast is fine. Security is not a problem and neither is parking. I will be telling my friends about this place and stay in one when traveling. We have never had a problem yet and I want to thank the Manager for running such a great place to stay for Months at a time. I rate A+ in every way.MarilynMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r158241363-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158241363</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Better than what I had read thankfully</t>
+  </si>
+  <si>
+    <t>I saw the reviews and was a little concerned but it turned out this hotel was actually quite good.  In fact, I would rate it excellent among budget hotel stays.  Clean sheets and mattresses.  Rooms were clean as were common areas.  Front desk was very nice and pleasant.  Right across from NASA if you're wanting to visit.  Luby's right next door too. And felt very safe.  I stayed on the first floor.  I booked another stay for next week because it was good price. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2013</t>
+  </si>
+  <si>
+    <t>I saw the reviews and was a little concerned but it turned out this hotel was actually quite good.  In fact, I would rate it excellent among budget hotel stays.  Clean sheets and mattresses.  Rooms were clean as were common areas.  Front desk was very nice and pleasant.  Right across from NASA if you're wanting to visit.  Luby's right next door too. And felt very safe.  I stayed on the first floor.  I booked another stay for next week because it was good price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r157231552-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157231552</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>STAY AWAY</t>
+  </si>
+  <si>
+    <t>If you want bad service and a  very bad manager, then yes you and your family shoold stay here! I never recieved a phone call about my check out i've been staying for over 2 weeks and for checking out 2 hrs late they want to charge me $30 late fee!! Wow little do they know that this will cost them more then that!! I will make every bad posting of them..Not only is it small, no breakfast, stinks, bad service, don't clean rooms evryday, trash trash trash all over, they need customer service training!! I can asure you if you read this you will agree!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>If you want bad service and a  very bad manager, then yes you and your family shoold stay here! I never recieved a phone call about my check out i've been staying for over 2 weeks and for checking out 2 hrs late they want to charge me $30 late fee!! Wow little do they know that this will cost them more then that!! I will make every bad posting of them..Not only is it small, no breakfast, stinks, bad service, don't clean rooms evryday, trash trash trash all over, they need customer service training!! I can asure you if you read this you will agree!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r157208835-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157208835</t>
+  </si>
+  <si>
+    <t>Across the Street from NASA</t>
+  </si>
+  <si>
+    <t>I bid for this hotel on Priceline and got it for $32. Stayed one night while we visited NASA. This hotel is exactly right across the street from NASA. Check in was unremarkable. Was able to park where I could see my car. Had a second floor room that smelled like smoke but otherwise it was good, clean, large room with a kitchen and large bathroom. I did use the laundry room and it was clean. In the morning they had grab and go breakfast but I went next door to Starbuck's instead. The hotel wasn't busy at all, but I can see how it might get busy due to its location. If I were bringing a group to NASA I'd stay here. Overall it fit my requirements extremely well.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>I bid for this hotel on Priceline and got it for $32. Stayed one night while we visited NASA. This hotel is exactly right across the street from NASA. Check in was unremarkable. Was able to park where I could see my car. Had a second floor room that smelled like smoke but otherwise it was good, clean, large room with a kitchen and large bathroom. I did use the laundry room and it was clean. In the morning they had grab and go breakfast but I went next door to Starbuck's instead. The hotel wasn't busy at all, but I can see how it might get busy due to its location. If I were bringing a group to NASA I'd stay here. Overall it fit my requirements extremely well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r157188528-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157188528</t>
+  </si>
+  <si>
+    <t>Decent room for the price that I paid.</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 nights. The room was decent, the 3rd floor hallway smelled of cigarette smoke, but it did not seem to carry into the room. the room was clean and even though I didn't use it, the addition of the cooking facilities is nice.The only complaint's I really have is the A/C didn't really work all that well, and the pillows on the bed were horrible. It was a really good location, right across the street from the Space Center and a short drive to Kemah which was the biggest reason for this stop on my trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 nights. The room was decent, the 3rd floor hallway smelled of cigarette smoke, but it did not seem to carry into the room. the room was clean and even though I didn't use it, the addition of the cooking facilities is nice.The only complaint's I really have is the A/C didn't really work all that well, and the pillows on the bed were horrible. It was a really good location, right across the street from the Space Center and a short drive to Kemah which was the biggest reason for this stop on my trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r154978281-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154978281</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Thank you very much to Ruben and staff !!</t>
+  </si>
+  <si>
+    <t>I was here out of town from Chicago working as a Superintendent for Construction. Everybody at this hotel was very nice and polite and professional. The janitorial/maintenance, housekeeping and the front desk. All very professional and polite with a smile to help me get through my day that much easier. Rooms were clean, everything was kept up very nicely. But there was one guy that stood out from the rest with exceptional service and that was Ruben at the front desk at the Johnson Space Center. He was very knowledgeable, helpful, polite and asked how everything was all the time but was not annoying about it. He does a wonderful job and deserves to be groomed for his excellence in his profession. Give him a vacation and a promotion. Ruben was definitely a very hard worker. I am giving you guys a perfect review solely because of Ruben.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>I was here out of town from Chicago working as a Superintendent for Construction. Everybody at this hotel was very nice and polite and professional. The janitorial/maintenance, housekeeping and the front desk. All very professional and polite with a smile to help me get through my day that much easier. Rooms were clean, everything was kept up very nicely. But there was one guy that stood out from the rest with exceptional service and that was Ruben at the front desk at the Johnson Space Center. He was very knowledgeable, helpful, polite and asked how everything was all the time but was not annoying about it. He does a wonderful job and deserves to be groomed for his excellence in his profession. Give him a vacation and a promotion. Ruben was definitely a very hard worker. I am giving you guys a perfect review solely because of Ruben.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r154423164-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154423164</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Thanks Ruben and Entire Staff!!!</t>
+  </si>
+  <si>
+    <t>I've been staying with Extended Stay on and off for the last year or so! The staff has Always taken care of me and my needs! Ruben has been a big inspiration to me since the first time we meet! He has great patience, smile, and has gone out of his way each time I've needed help!! It's a pleasure having to go to the staff for help! Thanks FOR MAKING ME FEEL AT HOME AWAY FROM HOME!! I'm very impressed with the way Ruben has treated me and the other guests with Respect, Patience, and Understanding even when his day is not going well! He is a Great Asset to Your Company! Thanks Ruben and Entire Staff!!!!!! Y'all Make Me Smile!Have a Bleesed Day Gregg U.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded March 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2013</t>
+  </si>
+  <si>
+    <t>I've been staying with Extended Stay on and off for the last year or so! The staff has Always taken care of me and my needs! Ruben has been a big inspiration to me since the first time we meet! He has great patience, smile, and has gone out of his way each time I've needed help!! It's a pleasure having to go to the staff for help! Thanks FOR MAKING ME FEEL AT HOME AWAY FROM HOME!! I'm very impressed with the way Ruben has treated me and the other guests with Respect, Patience, and Understanding even when his day is not going well! He is a Great Asset to Your Company! Thanks Ruben and Entire Staff!!!!!! Y'all Make Me Smile!Have a Bleesed Day Gregg U.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r153233779-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153233779</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>MY STAY AT EXTENDED STAY AMERICA</t>
+  </si>
+  <si>
+    <t>My Name Is Roshanda Humphrey, and I would like to take this time to say, that my stay at the Johnson Space Center Extended America, has been Excellent!!! The staff there has been really helpful and always polite. My check-in went very well and smooth. and big shout to Ruben at the front desk!!!! He has done alot for me and my son Terrance.. way to go.. Extended Stay America. And Thanks Ruben!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded February 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2013</t>
+  </si>
+  <si>
+    <t>My Name Is Roshanda Humphrey, and I would like to take this time to say, that my stay at the Johnson Space Center Extended America, has been Excellent!!! The staff there has been really helpful and always polite. My check-in went very well and smooth. and big shout to Ruben at the front desk!!!! He has done alot for me and my son Terrance.. way to go.. Extended Stay America. And Thanks Ruben!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r149417292-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149417292</t>
+  </si>
+  <si>
+    <t>01/11/2013</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever</t>
+  </si>
+  <si>
+    <t>I check in at 6pm and they gave me a room that had not been cleaned or made. I went back to the front desk to find that another individual had the same issue.  Then to top it off. My next door neighbors vacuumed at midnight and keep yelling and cursing at each other. So ghetto!!! The desk was about to fall apart and the whole building decor and furniture are seriously out dated! Ok now here is the best part! They charge you and extra $3 per day if you want your room cleaned, vacuumed and bed made!!! I do not recommend this hotel to my worst enemy!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded January 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2013</t>
+  </si>
+  <si>
+    <t>I check in at 6pm and they gave me a room that had not been cleaned or made. I went back to the front desk to find that another individual had the same issue.  Then to top it off. My next door neighbors vacuumed at midnight and keep yelling and cursing at each other. So ghetto!!! The desk was about to fall apart and the whole building decor and furniture are seriously out dated! Ok now here is the best part! They charge you and extra $3 per day if you want your room cleaned, vacuumed and bed made!!! I do not recommend this hotel to my worst enemy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r148372307-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148372307</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Outstanding Service, Clean, Quiet, Great Location</t>
+  </si>
+  <si>
+    <t>My stay has been nothing more than exceptional!  The Manager and All the Staff will keep you coming back for more!  You'll really feel pampered.  This hotel stays clean inside and outside.  The lighting is very good at night inside the hotel as well as outside.  They have an excellent housekeeping and mantenance staff like no other!  The front desk staff are warm, always helpful and very friendly.  The hotel is clean, quiet, no drama.  You'll be surounded by everything at your finger tips; I love the location, which has easy acess to resturants, coffee shops, bars, shopping, dining, movie theater, and so much more!  You'll be close to several area attractions such as Space Center Houston, Kemah Boardwalk, Galveston Island, Bay Brook and the new Tanger Mall Outlets, and approx. 40 minutes from Down Town Houston.  This hotel location does not have a fitness center or pool, however they'll give you permission to use their sister property's facility only minutes away. I would highly recommend staying here if your on vacation, business, or need short term/long term housing.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded December 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2012</t>
+  </si>
+  <si>
+    <t>My stay has been nothing more than exceptional!  The Manager and All the Staff will keep you coming back for more!  You'll really feel pampered.  This hotel stays clean inside and outside.  The lighting is very good at night inside the hotel as well as outside.  They have an excellent housekeeping and mantenance staff like no other!  The front desk staff are warm, always helpful and very friendly.  The hotel is clean, quiet, no drama.  You'll be surounded by everything at your finger tips; I love the location, which has easy acess to resturants, coffee shops, bars, shopping, dining, movie theater, and so much more!  You'll be close to several area attractions such as Space Center Houston, Kemah Boardwalk, Galveston Island, Bay Brook and the new Tanger Mall Outlets, and approx. 40 minutes from Down Town Houston.  This hotel location does not have a fitness center or pool, however they'll give you permission to use their sister property's facility only minutes away. I would highly recommend staying here if your on vacation, business, or need short term/long term housing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r147388169-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147388169</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>Our stay here has been wonderful With friendly staff very professional and anything that we need they make sure that we are accommodated this is a great place to stay. over the course of the stay they have done numerous upgrades that are greatly appreciated! thank you PS absolutely love the breakfast barMoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded December 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2012</t>
+  </si>
+  <si>
+    <t>Our stay here has been wonderful With friendly staff very professional and anything that we need they make sure that we are accommodated this is a great place to stay. over the course of the stay they have done numerous upgrades that are greatly appreciated! thank you PS absolutely love the breakfast barMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r144961108-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144961108</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Trust me when I tell you, this place is disgusting and you do not want to stay here!</t>
+  </si>
+  <si>
+    <t>I am staying here on business and unfortunately for me the room has been paid in advance. My first week I had an infestation of crickets and the 1st floor plumbing overflowed and my bathroom was under water, sewer water. They finally moved me to new room on 2nd floor. The smell is awful. They assured me it was a non-smoking floor but I couldn't tell. Also, my toilet had mold growing in it. The customer-service is horrible. After 2 weeks of trying to get a manager, I finally called corporate and they got her to call me the next day. This week, we have more plumbing problems where they have to turn water off. This has been the worst experience!!! The staff could care less. you can tell they hate their job. The place is disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded November 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2012</t>
+  </si>
+  <si>
+    <t>I am staying here on business and unfortunately for me the room has been paid in advance. My first week I had an infestation of crickets and the 1st floor plumbing overflowed and my bathroom was under water, sewer water. They finally moved me to new room on 2nd floor. The smell is awful. They assured me it was a non-smoking floor but I couldn't tell. Also, my toilet had mold growing in it. The customer-service is horrible. After 2 weeks of trying to get a manager, I finally called corporate and they got her to call me the next day. This week, we have more plumbing problems where they have to turn water off. This has been the worst experience!!! The staff could care less. you can tell they hate their job. The place is disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r144648327-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144648327</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>Very unpleasant stay could hardly breathe with the cigarette smoke smell all over from the lobby to the room. Could not sleep well because of the terrible allergy I got from the cigarette smoke.  If you are asthmatic or have respiratory problems stay away!  Continental Breakfast with not many choices (coffee, cereal bars, and fruits) No coffee by 8am even though the breakfast is from 6-9am.  The staff is not courteous. This was by far my worst experience in a hotel, a real rip off.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded November 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2012</t>
+  </si>
+  <si>
+    <t>Very unpleasant stay could hardly breathe with the cigarette smoke smell all over from the lobby to the room. Could not sleep well because of the terrible allergy I got from the cigarette smoke.  If you are asthmatic or have respiratory problems stay away!  Continental Breakfast with not many choices (coffee, cereal bars, and fruits) No coffee by 8am even though the breakfast is from 6-9am.  The staff is not courteous. This was by far my worst experience in a hotel, a real rip off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r143703185-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143703185</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>I have stayed at extended stay Americas and other Extended stay hotels all over the US and this is by far the best extended stay Hotel I have stayed at. The location and the ease of access to major roadways just adds to the greatness of this Hotel. The staff and management are well trained,curtious,and profectionalMoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded October 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at extended stay Americas and other Extended stay hotels all over the US and this is by far the best extended stay Hotel I have stayed at. The location and the ease of access to major roadways just adds to the greatness of this Hotel. The staff and management are well trained,curtious,and profectionalMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r139612484-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139612484</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Beware of the rooms you get!</t>
+  </si>
+  <si>
+    <t>We planned to visit NASA, Houston on the labor day weekend. So we chose the Extended Stay America which is very close to NASA. We were given Room 114 on the ground floor which is an accessible room with 2 double bed, dining table with a well equipped Kitchen.There were two problems (serious) with the room. 1. Bathroom and 2 . Sound of the trash bin .Ok, let me talk about the Bathroom First. Since this is an accessible room,the bathroom has no bathtub. Water flushes out of the bath area on the wooden floor and it become completely messy. We put few towels on the floor to clean the water, but after using few times, the bathroom starts smelling. There were no housekeeping as we stayed on the labor day.And the second problem was the sound of the trash machine which troubled us whole night. I would suggest anyone who books the room in this hotel, do check the rooms before you get in.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>We planned to visit NASA, Houston on the labor day weekend. So we chose the Extended Stay America which is very close to NASA. We were given Room 114 on the ground floor which is an accessible room with 2 double bed, dining table with a well equipped Kitchen.There were two problems (serious) with the room. 1. Bathroom and 2 . Sound of the trash bin .Ok, let me talk about the Bathroom First. Since this is an accessible room,the bathroom has no bathtub. Water flushes out of the bath area on the wooden floor and it become completely messy. We put few towels on the floor to clean the water, but after using few times, the bathroom starts smelling. There were no housekeeping as we stayed on the labor day.And the second problem was the sound of the trash machine which troubled us whole night. I would suggest anyone who books the room in this hotel, do check the rooms before you get in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r138278222-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138278222</t>
+  </si>
+  <si>
+    <t>08/24/2012</t>
+  </si>
+  <si>
+    <t>Off the charts for terrible</t>
+  </si>
+  <si>
+    <t>In town for a family funeral, arrived late.  My daughter wanted me and her dad to stay the first night here to regroup.  I was thankful for her thoughtfulness. Pictures will tell it all, I don't have to add. When opening the door to the 3rd floor, was knocked out due to smoke and smelled it all night, could not sleep well.  The room, well, the bed was made however, totally filthy and had aged holes from cigarette burns, red dye stains from kool-aid type of liquid. No soaps for the shower, however, not sure the shower would be any cleaner than what I evidenced. The hallways were in need of vacuuming, spit on the floor in the elevator,filth.  Houston and NASA-Johnson Space Center should not even be affiliated with this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded August 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2012</t>
+  </si>
+  <si>
+    <t>In town for a family funeral, arrived late.  My daughter wanted me and her dad to stay the first night here to regroup.  I was thankful for her thoughtfulness. Pictures will tell it all, I don't have to add. When opening the door to the 3rd floor, was knocked out due to smoke and smelled it all night, could not sleep well.  The room, well, the bed was made however, totally filthy and had aged holes from cigarette burns, red dye stains from kool-aid type of liquid. No soaps for the shower, however, not sure the shower would be any cleaner than what I evidenced. The hallways were in need of vacuuming, spit on the floor in the elevator,filth.  Houston and NASA-Johnson Space Center should not even be affiliated with this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r132228971-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132228971</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>If you need to stay anywhere for any length of time and are budget conscious-THIS IS IT</t>
+  </si>
+  <si>
+    <t>Staff, amenities, location, room size, etc. are all awesome for this price!  Cheaper and 200% nicer than a Motel 6 or Super 8 which costs more!!!  Craziness!  :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - NASA - Johnson Space Center, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Staff, amenities, location, room size, etc. are all awesome for this price!  Cheaper and 200% nicer than a Motel 6 or Super 8 which costs more!!!  Craziness!  :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r53185782-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>53185782</t>
+  </si>
+  <si>
+    <t>01/11/2010</t>
+  </si>
+  <si>
+    <t>Great value! Has kitchen, Room was clean, good location near Nasa.</t>
+  </si>
+  <si>
+    <t>We stayed here for a week.  It was great having a kitchen.  We were visiting family, so it was nice having our own cooking space, so that we could eat in sometimes, not just with family or in restaurants.  The hotel was handy to everything.  Our room was clean and the cost was very reasonable!!  We will stay here next time we visit with our son, daughter-in-law and grandchildren.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r26046126-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26046126</t>
+  </si>
+  <si>
+    <t>03/12/2009</t>
+  </si>
+  <si>
+    <t>Filthy and Infested with Bugs!</t>
+  </si>
+  <si>
+    <t>I have been here a week and had to stop in the middle of typing this review to kill a roach crawling up the wall of the kitchen counter.  I'm still looking at it as I type this review.  Yuck!  Unfortunately, I have had to keep all of my food in the refrigerator due to roaches and other bugs occupying the room with me.  Henry, the maintenance man, has sprayed the room for bugs three times and still the roaches and bugs are everywhere.  In addition, the bed spread covers needed washing.  One looked like someone had dropped a huge pizza slice on it.  The tomato sauce (6 x 4 ") was on the underside of the spread (the white side of the material) so it was hard not to miss.  It was located at the top of the spread by the pillows so I can't believe the maid did not notice it when she made the bed.  The other spread had a green spot on it.  Eyew!  They advertise a 100% satisfaction and when I asked about it, Sydney at the front desk,  promised me a free night..  When I paid for last weeks bill, she did not notate this anywhere so I have yet to see any credit on my account.   I don't think I will ever stay here again.  This place really needs to do something about the infestation of bugs and overall cleaning of the rooms....I have been here a week and had to stop in the middle of typing this review to kill a roach crawling up the wall of the kitchen counter.  I'm still looking at it as I type this review.  Yuck!  Unfortunately, I have had to keep all of my food in the refrigerator due to roaches and other bugs occupying the room with me.  Henry, the maintenance man, has sprayed the room for bugs three times and still the roaches and bugs are everywhere.  In addition, the bed spread covers needed washing.  One looked like someone had dropped a huge pizza slice on it.  The tomato sauce (6 x 4 ") was on the underside of the spread (the white side of the material) so it was hard not to miss.  It was located at the top of the spread by the pillows so I can't believe the maid did not notice it when she made the bed.  The other spread had a green spot on it.  Eyew!  They advertise a 100% satisfaction and when I asked about it, Sydney at the front desk,  promised me a free night..  When I paid for last weeks bill, she did not notate this anywhere so I have yet to see any credit on my account.   I don't think I will ever stay here again.  This place really needs to do something about the infestation of bugs and overall cleaning of the rooms.  The price I paid was $91.25 a day with tax or $77.90 without.  I talked with other people staying here and they have bugs, too, so switching rooms would not have mattered.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I have been here a week and had to stop in the middle of typing this review to kill a roach crawling up the wall of the kitchen counter.  I'm still looking at it as I type this review.  Yuck!  Unfortunately, I have had to keep all of my food in the refrigerator due to roaches and other bugs occupying the room with me.  Henry, the maintenance man, has sprayed the room for bugs three times and still the roaches and bugs are everywhere.  In addition, the bed spread covers needed washing.  One looked like someone had dropped a huge pizza slice on it.  The tomato sauce (6 x 4 ") was on the underside of the spread (the white side of the material) so it was hard not to miss.  It was located at the top of the spread by the pillows so I can't believe the maid did not notice it when she made the bed.  The other spread had a green spot on it.  Eyew!  They advertise a 100% satisfaction and when I asked about it, Sydney at the front desk,  promised me a free night..  When I paid for last weeks bill, she did not notate this anywhere so I have yet to see any credit on my account.   I don't think I will ever stay here again.  This place really needs to do something about the infestation of bugs and overall cleaning of the rooms....I have been here a week and had to stop in the middle of typing this review to kill a roach crawling up the wall of the kitchen counter.  I'm still looking at it as I type this review.  Yuck!  Unfortunately, I have had to keep all of my food in the refrigerator due to roaches and other bugs occupying the room with me.  Henry, the maintenance man, has sprayed the room for bugs three times and still the roaches and bugs are everywhere.  In addition, the bed spread covers needed washing.  One looked like someone had dropped a huge pizza slice on it.  The tomato sauce (6 x 4 ") was on the underside of the spread (the white side of the material) so it was hard not to miss.  It was located at the top of the spread by the pillows so I can't believe the maid did not notice it when she made the bed.  The other spread had a green spot on it.  Eyew!  They advertise a 100% satisfaction and when I asked about it, Sydney at the front desk,  promised me a free night..  When I paid for last weeks bill, she did not notate this anywhere so I have yet to see any credit on my account.   I don't think I will ever stay here again.  This place really needs to do something about the infestation of bugs and overall cleaning of the rooms.  The price I paid was $91.25 a day with tax or $77.90 without.  I talked with other people staying here and they have bugs, too, so switching rooms would not have mattered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r19091398-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>19091398</t>
+  </si>
+  <si>
+    <t>08/18/2008</t>
+  </si>
+  <si>
+    <t>Very Convenient</t>
+  </si>
+  <si>
+    <t>This hotel is located almost across the street from the entrance to the space center.  The room was clean and comfortable.  The staff very helpful with directions and restaurant recommendations.  Really appreciated the in-room fridge to refreeze the blue ice and clean fruit for the cooler.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d263231-r5394841-Extended_Stay_America_Houston_NASA_Johnson_Space_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5394841</t>
+  </si>
+  <si>
+    <t>06/26/2006</t>
+  </si>
+  <si>
+    <t>Great Stay, no problems</t>
+  </si>
+  <si>
+    <t>The hotel was still under construction when we stayed.  The staff was very courteous and the room was very clean.  The A/C was electronically controlled which is nice because they are either too cold or too hot.  We paid 69 dollars a night.  There is a Starbucks, Denny's, and McDonalds within walking distance of the hotel.  I would recommend this hotel to my friends and family.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2519,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2551,5260 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>202</v>
+      </c>
+      <c r="X19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>243</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>244</v>
+      </c>
+      <c r="X24" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>252</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" t="s">
+        <v>258</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>259</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>260</v>
+      </c>
+      <c r="X26" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" t="s">
+        <v>265</v>
+      </c>
+      <c r="K27" t="s">
+        <v>266</v>
+      </c>
+      <c r="L27" t="s">
+        <v>267</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>268</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>269</v>
+      </c>
+      <c r="X27" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" t="s">
+        <v>274</v>
+      </c>
+      <c r="K28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L28" t="s">
+        <v>276</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>294</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>295</v>
+      </c>
+      <c r="X30" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>299</v>
+      </c>
+      <c r="J31" t="s">
+        <v>300</v>
+      </c>
+      <c r="K31" t="s">
+        <v>301</v>
+      </c>
+      <c r="L31" t="s">
+        <v>302</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>303</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>304</v>
+      </c>
+      <c r="X31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>307</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>308</v>
+      </c>
+      <c r="J32" t="s">
+        <v>309</v>
+      </c>
+      <c r="K32" t="s">
+        <v>310</v>
+      </c>
+      <c r="L32" t="s">
+        <v>311</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>303</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>312</v>
+      </c>
+      <c r="X32" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>315</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" t="s">
+        <v>317</v>
+      </c>
+      <c r="K33" t="s">
+        <v>318</v>
+      </c>
+      <c r="L33" t="s">
+        <v>319</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>320</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>321</v>
+      </c>
+      <c r="X33" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>324</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>325</v>
+      </c>
+      <c r="J34" t="s">
+        <v>326</v>
+      </c>
+      <c r="K34" t="s">
+        <v>327</v>
+      </c>
+      <c r="L34" t="s">
+        <v>328</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>303</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>329</v>
+      </c>
+      <c r="X34" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>332</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>333</v>
+      </c>
+      <c r="J35" t="s">
+        <v>334</v>
+      </c>
+      <c r="K35" t="s">
+        <v>335</v>
+      </c>
+      <c r="L35" t="s">
+        <v>336</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>337</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>338</v>
+      </c>
+      <c r="X35" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>342</v>
+      </c>
+      <c r="J36" t="s">
+        <v>343</v>
+      </c>
+      <c r="K36" t="s">
+        <v>344</v>
+      </c>
+      <c r="L36" t="s">
+        <v>345</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>346</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>347</v>
+      </c>
+      <c r="X36" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>350</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>351</v>
+      </c>
+      <c r="J37" t="s">
+        <v>352</v>
+      </c>
+      <c r="K37" t="s">
+        <v>353</v>
+      </c>
+      <c r="L37" t="s">
+        <v>354</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>355</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>357</v>
+      </c>
+      <c r="J38" t="s">
+        <v>358</v>
+      </c>
+      <c r="K38" t="s">
+        <v>359</v>
+      </c>
+      <c r="L38" t="s">
+        <v>360</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>361</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>362</v>
+      </c>
+      <c r="X38" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>365</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>366</v>
+      </c>
+      <c r="J39" t="s">
+        <v>367</v>
+      </c>
+      <c r="K39" t="s">
+        <v>368</v>
+      </c>
+      <c r="L39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>370</v>
+      </c>
+      <c r="X39" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>373</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>374</v>
+      </c>
+      <c r="J40" t="s">
+        <v>375</v>
+      </c>
+      <c r="K40" t="s">
+        <v>376</v>
+      </c>
+      <c r="L40" t="s">
+        <v>377</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>378</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" t="s">
+        <v>382</v>
+      </c>
+      <c r="L41" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>384</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>385</v>
+      </c>
+      <c r="X41" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>389</v>
+      </c>
+      <c r="J42" t="s">
+        <v>390</v>
+      </c>
+      <c r="K42" t="s">
+        <v>391</v>
+      </c>
+      <c r="L42" t="s">
+        <v>392</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>393</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>394</v>
+      </c>
+      <c r="X42" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>397</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>398</v>
+      </c>
+      <c r="J43" t="s">
+        <v>399</v>
+      </c>
+      <c r="K43" t="s">
+        <v>400</v>
+      </c>
+      <c r="L43" t="s">
+        <v>401</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>402</v>
+      </c>
+      <c r="X43" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>405</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J44" t="s">
+        <v>407</v>
+      </c>
+      <c r="K44" t="s">
+        <v>408</v>
+      </c>
+      <c r="L44" t="s">
+        <v>409</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s">
+        <v>97</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>411</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>412</v>
+      </c>
+      <c r="J45" t="s">
+        <v>413</v>
+      </c>
+      <c r="K45" t="s">
+        <v>414</v>
+      </c>
+      <c r="L45" t="s">
+        <v>415</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>416</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>417</v>
+      </c>
+      <c r="X45" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>420</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>421</v>
+      </c>
+      <c r="J46" t="s">
+        <v>422</v>
+      </c>
+      <c r="K46" t="s">
+        <v>423</v>
+      </c>
+      <c r="L46" t="s">
+        <v>424</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>425</v>
+      </c>
+      <c r="X46" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>428</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>429</v>
+      </c>
+      <c r="J47" t="s">
+        <v>430</v>
+      </c>
+      <c r="K47" t="s">
+        <v>431</v>
+      </c>
+      <c r="L47" t="s">
+        <v>432</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>433</v>
+      </c>
+      <c r="X47" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>436</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>437</v>
+      </c>
+      <c r="J48" t="s">
+        <v>438</v>
+      </c>
+      <c r="K48" t="s">
+        <v>439</v>
+      </c>
+      <c r="L48" t="s">
+        <v>440</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>416</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>442</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>443</v>
+      </c>
+      <c r="J49" t="s">
+        <v>444</v>
+      </c>
+      <c r="K49" t="s">
+        <v>445</v>
+      </c>
+      <c r="L49" t="s">
+        <v>446</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>447</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>448</v>
+      </c>
+      <c r="X49" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>451</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>452</v>
+      </c>
+      <c r="J50" t="s">
+        <v>453</v>
+      </c>
+      <c r="K50" t="s">
+        <v>454</v>
+      </c>
+      <c r="L50" t="s">
+        <v>455</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>456</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>457</v>
+      </c>
+      <c r="X50" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>460</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>461</v>
+      </c>
+      <c r="J51" t="s">
+        <v>462</v>
+      </c>
+      <c r="K51" t="s">
+        <v>463</v>
+      </c>
+      <c r="L51" t="s">
+        <v>464</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>465</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>466</v>
+      </c>
+      <c r="X51" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>469</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>470</v>
+      </c>
+      <c r="J52" t="s">
+        <v>471</v>
+      </c>
+      <c r="K52" t="s">
+        <v>472</v>
+      </c>
+      <c r="L52" t="s">
+        <v>473</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>474</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>475</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>476</v>
+      </c>
+      <c r="J53" t="s">
+        <v>477</v>
+      </c>
+      <c r="K53" t="s">
+        <v>478</v>
+      </c>
+      <c r="L53" t="s">
+        <v>479</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>480</v>
+      </c>
+      <c r="O53" t="s">
+        <v>97</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>481</v>
+      </c>
+      <c r="X53" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>484</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>485</v>
+      </c>
+      <c r="J54" t="s">
+        <v>486</v>
+      </c>
+      <c r="K54" t="s">
+        <v>487</v>
+      </c>
+      <c r="L54" t="s">
+        <v>488</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>489</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>490</v>
+      </c>
+      <c r="X54" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>493</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>494</v>
+      </c>
+      <c r="J55" t="s">
+        <v>495</v>
+      </c>
+      <c r="K55" t="s">
+        <v>496</v>
+      </c>
+      <c r="L55" t="s">
+        <v>497</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>474</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>498</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>499</v>
+      </c>
+      <c r="J56" t="s">
+        <v>500</v>
+      </c>
+      <c r="K56" t="s">
+        <v>501</v>
+      </c>
+      <c r="L56" t="s">
+        <v>502</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>503</v>
+      </c>
+      <c r="O56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>504</v>
+      </c>
+      <c r="X56" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>507</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J57" t="s">
+        <v>509</v>
+      </c>
+      <c r="K57" t="s">
+        <v>510</v>
+      </c>
+      <c r="L57" t="s">
+        <v>511</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>503</v>
+      </c>
+      <c r="O57" t="s">
+        <v>79</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>512</v>
+      </c>
+      <c r="X57" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>515</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>516</v>
+      </c>
+      <c r="J58" t="s">
+        <v>517</v>
+      </c>
+      <c r="K58" t="s">
+        <v>518</v>
+      </c>
+      <c r="L58" t="s">
+        <v>519</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>503</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>512</v>
+      </c>
+      <c r="X58" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>521</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>522</v>
+      </c>
+      <c r="J59" t="s">
+        <v>523</v>
+      </c>
+      <c r="K59" t="s">
+        <v>524</v>
+      </c>
+      <c r="L59" t="s">
+        <v>525</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>526</v>
+      </c>
+      <c r="O59" t="s">
+        <v>252</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>527</v>
+      </c>
+      <c r="X59" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>530</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>531</v>
+      </c>
+      <c r="J60" t="s">
+        <v>532</v>
+      </c>
+      <c r="K60" t="s">
+        <v>533</v>
+      </c>
+      <c r="L60" t="s">
+        <v>534</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>535</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>536</v>
+      </c>
+      <c r="X60" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>539</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>540</v>
+      </c>
+      <c r="J61" t="s">
+        <v>541</v>
+      </c>
+      <c r="K61" t="s">
+        <v>542</v>
+      </c>
+      <c r="L61" t="s">
+        <v>543</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>544</v>
+      </c>
+      <c r="X61" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>547</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>548</v>
+      </c>
+      <c r="J62" t="s">
+        <v>549</v>
+      </c>
+      <c r="K62" t="s">
+        <v>550</v>
+      </c>
+      <c r="L62" t="s">
+        <v>551</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>552</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>553</v>
+      </c>
+      <c r="X62" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>556</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>557</v>
+      </c>
+      <c r="J63" t="s">
+        <v>549</v>
+      </c>
+      <c r="K63" t="s">
+        <v>558</v>
+      </c>
+      <c r="L63" t="s">
+        <v>559</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>560</v>
+      </c>
+      <c r="O63" t="s">
+        <v>79</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>561</v>
+      </c>
+      <c r="X63" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>564</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>565</v>
+      </c>
+      <c r="J64" t="s">
+        <v>549</v>
+      </c>
+      <c r="K64" t="s">
+        <v>566</v>
+      </c>
+      <c r="L64" t="s">
+        <v>567</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>552</v>
+      </c>
+      <c r="O64" t="s">
+        <v>97</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>553</v>
+      </c>
+      <c r="X64" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>569</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>570</v>
+      </c>
+      <c r="J65" t="s">
+        <v>571</v>
+      </c>
+      <c r="K65" t="s">
+        <v>572</v>
+      </c>
+      <c r="L65" t="s">
+        <v>573</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>574</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>575</v>
+      </c>
+      <c r="X65" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>578</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>579</v>
+      </c>
+      <c r="J66" t="s">
+        <v>580</v>
+      </c>
+      <c r="K66" t="s">
+        <v>581</v>
+      </c>
+      <c r="L66" t="s">
+        <v>582</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>574</v>
+      </c>
+      <c r="O66" t="s">
+        <v>97</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>583</v>
+      </c>
+      <c r="X66" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>586</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>587</v>
+      </c>
+      <c r="J67" t="s">
+        <v>588</v>
+      </c>
+      <c r="K67" t="s">
+        <v>589</v>
+      </c>
+      <c r="L67" t="s">
+        <v>590</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>574</v>
+      </c>
+      <c r="O67" t="s">
+        <v>79</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>591</v>
+      </c>
+      <c r="X67" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>594</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>595</v>
+      </c>
+      <c r="J68" t="s">
+        <v>596</v>
+      </c>
+      <c r="K68" t="s">
+        <v>597</v>
+      </c>
+      <c r="L68" t="s">
+        <v>598</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>599</v>
+      </c>
+      <c r="X68" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>602</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>603</v>
+      </c>
+      <c r="J69" t="s">
+        <v>604</v>
+      </c>
+      <c r="K69" t="s">
+        <v>605</v>
+      </c>
+      <c r="L69" t="s">
+        <v>606</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>607</v>
+      </c>
+      <c r="O69" t="s">
+        <v>97</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>608</v>
+      </c>
+      <c r="X69" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>611</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>612</v>
+      </c>
+      <c r="J70" t="s">
+        <v>613</v>
+      </c>
+      <c r="K70" t="s">
+        <v>215</v>
+      </c>
+      <c r="L70" t="s">
+        <v>614</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>615</v>
+      </c>
+      <c r="X70" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>618</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>619</v>
+      </c>
+      <c r="J71" t="s">
+        <v>620</v>
+      </c>
+      <c r="K71" t="s">
+        <v>621</v>
+      </c>
+      <c r="L71" t="s">
+        <v>622</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>623</v>
+      </c>
+      <c r="X71" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>626</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>627</v>
+      </c>
+      <c r="J72" t="s">
+        <v>628</v>
+      </c>
+      <c r="K72" t="s">
+        <v>629</v>
+      </c>
+      <c r="L72" t="s">
+        <v>630</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>631</v>
+      </c>
+      <c r="O72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>632</v>
+      </c>
+      <c r="X72" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>635</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>636</v>
+      </c>
+      <c r="J73" t="s">
+        <v>637</v>
+      </c>
+      <c r="K73" t="s">
+        <v>638</v>
+      </c>
+      <c r="L73" t="s">
+        <v>639</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>640</v>
+      </c>
+      <c r="X73" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>643</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>644</v>
+      </c>
+      <c r="J74" t="s">
+        <v>645</v>
+      </c>
+      <c r="K74" t="s">
+        <v>646</v>
+      </c>
+      <c r="L74" t="s">
+        <v>647</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>648</v>
+      </c>
+      <c r="O74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>649</v>
+      </c>
+      <c r="X74" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>652</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>653</v>
+      </c>
+      <c r="J75" t="s">
+        <v>654</v>
+      </c>
+      <c r="K75" t="s">
+        <v>655</v>
+      </c>
+      <c r="L75" t="s">
+        <v>656</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>657</v>
+      </c>
+      <c r="O75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>658</v>
+      </c>
+      <c r="X75" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>661</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>662</v>
+      </c>
+      <c r="J76" t="s">
+        <v>663</v>
+      </c>
+      <c r="K76" t="s">
+        <v>664</v>
+      </c>
+      <c r="L76" t="s">
+        <v>665</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>666</v>
+      </c>
+      <c r="O76" t="s">
+        <v>97</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>667</v>
+      </c>
+      <c r="X76" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>670</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>671</v>
+      </c>
+      <c r="J77" t="s">
+        <v>672</v>
+      </c>
+      <c r="K77" t="s">
+        <v>673</v>
+      </c>
+      <c r="L77" t="s">
+        <v>674</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>675</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>676</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>677</v>
+      </c>
+      <c r="J78" t="s">
+        <v>678</v>
+      </c>
+      <c r="K78" t="s">
+        <v>679</v>
+      </c>
+      <c r="L78" t="s">
+        <v>680</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>681</v>
+      </c>
+      <c r="O78" t="s">
+        <v>97</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>683</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>684</v>
+      </c>
+      <c r="J79" t="s">
+        <v>685</v>
+      </c>
+      <c r="K79" t="s">
+        <v>686</v>
+      </c>
+      <c r="L79" t="s">
+        <v>687</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>688</v>
+      </c>
+      <c r="O79" t="s">
+        <v>252</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37006</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>689</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>690</v>
+      </c>
+      <c r="J80" t="s">
+        <v>691</v>
+      </c>
+      <c r="K80" t="s">
+        <v>692</v>
+      </c>
+      <c r="L80" t="s">
+        <v>693</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
